--- a/project/Projekt-Steuerung_Selbstfahrendes-Auto.xlsx
+++ b/project/Projekt-Steuerung_Selbstfahrendes-Auto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\car\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D878EB-5EED-4DEA-AC6C-1A61BA73ECAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00411019-7777-4F76-B7C8-EB9E39ACB42F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="718" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,15 +28,16 @@
     <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'PSP - WBS'!$A$3:$I$9</definedName>
     <definedName name="_ftn1" localSheetId="4">'PSP - WBS'!#REF!</definedName>
     <definedName name="_ftnref1" localSheetId="4">'PSP - WBS'!$C$3</definedName>
     <definedName name="Arbeitspaket">[1]Stammdaten!$A$9:$A$10</definedName>
     <definedName name="Personen">[1]Stammdaten!$A$27:$A$28</definedName>
     <definedName name="Prio">[1]Stammdaten!$A$16:$A$18</definedName>
     <definedName name="Status">[1]Stammdaten!$A$21:$A$24</definedName>
-    <definedName name="Text11" localSheetId="4">'PSP - WBS'!$C$5</definedName>
-    <definedName name="Text12" localSheetId="4">'PSP - WBS'!$B$5</definedName>
-    <definedName name="Text13" localSheetId="4">'PSP - WBS'!$B$13</definedName>
+    <definedName name="Text11" localSheetId="4">'PSP - WBS'!$C$12</definedName>
+    <definedName name="Text12" localSheetId="4">'PSP - WBS'!$B$12</definedName>
+    <definedName name="Text13" localSheetId="4">'PSP - WBS'!$B$22</definedName>
     <definedName name="Themen">[1]Stammdaten!$A$13:$A$13</definedName>
     <definedName name="Typ">[1]Stammdaten!$A$4:$A$6</definedName>
   </definedNames>
@@ -116,6 +117,68 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Philipp</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{37824603-8275-41AF-BB14-4EC8E818EA13}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nur einmal am Anfang schätzen, dann in Spalte E + F laufend aktualisieren.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Philipp</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{986FEC24-12AC-4216-8AF0-48B85996E1CD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Punkt angelegt am ...</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{D3173CD4-A53B-4D28-BA82-D984BC2B9327}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Zu erledigen bis …</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Philipp</author>
@@ -269,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="221">
   <si>
     <t>OPL - Offene Punkte Liste</t>
   </si>
@@ -307,54 +370,21 @@
     <t>A</t>
   </si>
   <si>
-    <t>Matvey</t>
-  </si>
-  <si>
-    <t>Proxy Einstellungen: Schulproxy lässt Wlan Verbindung nicht zu.</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
     <t>open</t>
   </si>
   <si>
-    <t>14.10.16 - 12:10</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>FPS Rate zu niedrig. Brauchen Lösungvorschläge</t>
-  </si>
-  <si>
-    <t>Mid</t>
-  </si>
-  <si>
     <t>closed</t>
   </si>
   <si>
-    <t>Framerate einstellbar - 25fps</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Datenaustausch via Dropbox. Git zu aufwendig und nicht benötigt, da Themen gut abgegrenzt.</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
     <t>Jahn</t>
   </si>
   <si>
-    <t>Rückmeldung an Abteilungsvorstand wieviel Budget benötigt wird. Derzeitige Bestellliste (nicht aktuell) rund 200,-. Wird noch mehr bis Projektende erwartet?</t>
-  </si>
-  <si>
-    <t>Buget mit 250€ festgesetzt - Rückmeldung an KV durch Mr. J</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -376,9 +406,6 @@
     <t>cancelled</t>
   </si>
   <si>
-    <t>Proxy Problem mithilfe Mr. Ps gelöst. (/etc/apt/apt.conf) -Schulproxy hineinschreiben - hoffnungslos… : eigenes Wlan</t>
-  </si>
-  <si>
     <t>Projektleiter</t>
   </si>
   <si>
@@ -391,15 +418,6 @@
     <t>Fertigstellung (Ist)</t>
   </si>
   <si>
-    <t>&lt;Datum&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Teilaufgabe&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Arbeitspaket&gt;</t>
-  </si>
-  <si>
     <t>Risikoanalyse</t>
   </si>
   <si>
@@ -418,15 +436,6 @@
     <t>Bestell Nr.</t>
   </si>
   <si>
-    <t>http://at.rs-online.com/web/p/processor-microcontroller-development-kits/8968660/</t>
-  </si>
-  <si>
-    <t>896-8660</t>
-  </si>
-  <si>
-    <t>gekauft bei Conrad</t>
-  </si>
-  <si>
     <t>Summe</t>
   </si>
   <si>
@@ -469,21 +478,9 @@
     <t>Verantwortlich</t>
   </si>
   <si>
-    <t>Aufwand [h]</t>
-  </si>
-  <si>
-    <t>&lt;Name&gt;</t>
-  </si>
-  <si>
     <t>Teilaufgabe (TA) / Arbeitspaket (AP)</t>
   </si>
   <si>
-    <t>&lt;Stunden&gt;</t>
-  </si>
-  <si>
-    <t>Verbleibend [h]</t>
-  </si>
-  <si>
     <t>negativ</t>
   </si>
   <si>
@@ -556,9 +553,6 @@
     <t>Aufgabe / Thema</t>
   </si>
   <si>
-    <t>Kodierung PWM Ansteuerung für Servo-Motor -&gt; Problem mit Spannungsversorung -&gt; OPL Punkt angelegt.</t>
-  </si>
-  <si>
     <t>Dauer [h]</t>
   </si>
   <si>
@@ -577,12 +571,6 @@
     <t>Bestellungen abgeschlossen</t>
   </si>
   <si>
-    <t>Erstentwurf der Dokumentation abgegeben</t>
-  </si>
-  <si>
-    <t>Testkonzept überlegt und festgelegt</t>
-  </si>
-  <si>
     <t>Sponsor:</t>
   </si>
   <si>
@@ -592,46 +580,9 @@
     <t>Motivation und kurze Beschreibung (Warum das Projekt?)</t>
   </si>
   <si>
-    <t>Handwäsche ist ein mühsames Unterfangen. Deshalb soll ein Gerät entwickelt werden, dass die Handwäsche automatisiert und schmutziges Gewand sauber macht (eine Waschmaschine).
-Man gibt die Wäsche in die Waschtrommel, schließt die Tür und wählt ein Lang- oder Kurzwaschprogramm. Nach Beendigung des Waschprogramms entnimmt man die saubere Wäsche und hängt diese zum Trocknen auf.</t>
-  </si>
-  <si>
-    <t>Waschtrommel (7 Liter Fassungsvolumen)</t>
-  </si>
-  <si>
-    <t>7-Segment-Anzeige (4 Segmente)</t>
-  </si>
-  <si>
-    <t>Steuereinheit / Raspberry Pi</t>
-  </si>
-  <si>
-    <t>Ausziehfach für Waschmittel</t>
-  </si>
-  <si>
-    <t>Drehknopf zur Programmwahl aus Aluminium</t>
-  </si>
-  <si>
-    <t>Wasseranschlüsse nach ISO Norm</t>
-  </si>
-  <si>
-    <t>vorhanden in der Schule</t>
-  </si>
-  <si>
-    <t>Die Waschmaschine soll weniger als 40 Liter Wasser pro Waschgang verbrauchen bei einer Waschwirkung von 60°C.</t>
-  </si>
-  <si>
-    <t>Die Waschmaschine soll weniger als 15 Kilogramm wiegen.</t>
-  </si>
-  <si>
-    <t>Es handelt sich um eine Waschmaschine und keinen Trockner. D.h. die Wäsche muss nach dem Waschen noch aufgehängt werden.</t>
-  </si>
-  <si>
     <t>Ziele - Was soll mit dem Projekt erreicht werden?</t>
   </si>
   <si>
-    <t>Die Waschmaschine soll die Kunden begeistern und überzeugen.</t>
-  </si>
-  <si>
     <t>Bestellliste</t>
   </si>
   <si>
@@ -645,108 +596,6 @@
   </si>
   <si>
     <t>Anforderungen</t>
-  </si>
-  <si>
-    <t>Die Waschmaschine soll die Wäsche schleudern aber soll nicht trocknen.</t>
-  </si>
-  <si>
-    <t>Die Waschmaschine soll in einer Waschtrommel ein Fassungsvolumen für 7 Liter Wäsche haben.</t>
-  </si>
-  <si>
-    <t>Die Waschtrommel soll einen geräuscharmen und ruhigen Lauf haben (&lt; 60dB).</t>
-  </si>
-  <si>
-    <t>Die Waschtrommel soll Wasser durchlässig sein (wieviel pro Minute?).</t>
-  </si>
-  <si>
-    <t>Die Waschmaschine soll zwei verschiedene Programmvarianten besitzen.</t>
-  </si>
-  <si>
-    <t>Die Programmvarianten sollen über einen Drehschalter eingestellt werden.</t>
-  </si>
-  <si>
-    <t>Der Drehschalter soll sich nicht überdrehen lassen können.</t>
-  </si>
-  <si>
-    <t>Der Drehschalter soll ein haptisches und akustisches Feedback geben, wenn eine neue Programmvariante ausgewählt wurde.</t>
-  </si>
-  <si>
-    <t>Der Drehschalter soll aus Aluminium gefertigt sein.</t>
-  </si>
-  <si>
-    <t>Der Drehschalter soll einen Durchmesser zwischen 5 und 7 Zentimeter haben.</t>
-  </si>
-  <si>
-    <t>Die Waschmaschine soll die Dauer der restlichen Waschzeit auf einer 7-Segment-Anzeige ausgeben und alle 10 Sekunden aktualisieren, bis das Waschprogramm beendet ist.</t>
-  </si>
-  <si>
-    <t>Die 7-Segment-Anzeige soll aus 4 Segmenten bestehen und Zeiten von 00:00 bis 99:99 ausgeben können.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Die 7-Segment-Anzeige soll bei direkter Sonneneinstrahlung noch gut lesbar sein. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t>à</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> schon etwas schwammig – was ist direkte Sonneneinstrahlung?</t>
-    </r>
-  </si>
-  <si>
-    <t>Die 7-Segment-Anzeige soll mit einer Frequenz von mindestens 50Hz aktualisiert werden.</t>
-  </si>
-  <si>
-    <t>Die Waschmaschine soll ein ungewolltes Abfließen von Wasser erkennen können (z.B. Schlauch gerissen).</t>
-  </si>
-  <si>
-    <t>Die Waschmaschine soll zwei Anschlüsse für Zu- und Abwasser nach ISO-Norm besitzen.</t>
-  </si>
-  <si>
-    <t>Die Waschmaschine soll ein ausziehbares Fach zum Einfüllen von Waschmittel besitzen.</t>
-  </si>
-  <si>
-    <t>Der Waschmaschine soll eine gut verständliche Kundendokumentation beiliegen in den Sprachen Deutsch und Englisch.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Die Waschmaschine soll stark verschmutzte Wäsche reinigen können. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t>à</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Was heißt stark verschmutzt??</t>
-    </r>
-  </si>
-  <si>
-    <t>Vom Marktführer sollen 10% der Kunden im ersten Jahr zu uns wechseln.</t>
   </si>
   <si>
     <r>
@@ -810,33 +659,12 @@
     </r>
   </si>
   <si>
-    <t>Waschmaschine auf eine Waage stellen. Anzeige muss &lt;=15 kg sein.</t>
-  </si>
-  <si>
-    <t>Die Wäsche muss durch das Schleudern so viel Flüssigkeit verloren haben, dass man mit der Hand kein Wasser mehr auswringen kann.</t>
-  </si>
-  <si>
-    <t>Lautstärkenmessung durchführen.</t>
-  </si>
-  <si>
-    <t>7 Liter Wäsche einfüllen.</t>
-  </si>
-  <si>
     <t>Wie wird getestet?</t>
   </si>
   <si>
     <t>Check?</t>
   </si>
   <si>
-    <t>Wassermenge messen.</t>
-  </si>
-  <si>
-    <t>Programmwahl über Drehschalter wechseln.</t>
-  </si>
-  <si>
-    <t>Mit angemessener Kraft (??) der Drehschalter bis zum Anschlag drehen.</t>
-  </si>
-  <si>
     <t>Name / Personengruppe</t>
   </si>
   <si>
@@ -850,9 +678,6 @@
   </si>
   <si>
     <t>Projektarbeitsbetreuer</t>
-  </si>
-  <si>
-    <t>Erster Prototyp funktionsfähig (Waschtrommel und Wasserpumpen können angesteuert werden in einem simplen Testaufbau)</t>
   </si>
   <si>
     <t>Finale Abgabe des funktionierenden Produkts und Dokumentation</t>
@@ -1083,12 +908,6 @@
     </r>
   </si>
   <si>
-    <t>Finales Design des Bedienpanels abgeschlossen (implementiert und getestet)</t>
-  </si>
-  <si>
-    <t>Bektesh</t>
-  </si>
-  <si>
     <t>Projekt: Selbstfahrendes Auto</t>
   </si>
   <si>
@@ -1120,6 +939,340 @@
   </si>
   <si>
     <t>https://github.com/philippjahn/car/research</t>
+  </si>
+  <si>
+    <t>Autonomes Fahren ist eine Frage der Zeit, bis es ganz natürlicher Bestandteil unseres unseren Alltag sein wird. Mit einem kleinen Modell möchte ich Erkenntnisse gewinnen, wie komplex diese Sache werden kann.</t>
+  </si>
+  <si>
+    <t>Das Projekt soll in ähnlicher Form in der 4. Höheren Klasse umgesetzt werden. Jeder erhält ein eigenes Fahrzeug, dass es zusammenzubauen gilt und dann im Wettkampf das beste autonome Fahrzeug zu küren.</t>
+  </si>
+  <si>
+    <t>Autonome Fertigkeiten sollen erlernt werden (unterschiedliche Strategien um autonom Fahren zu können).</t>
+  </si>
+  <si>
+    <t>Es geht nicht um die Optimierung der Motorenansteuerung und das Design des Fahrzeugs.</t>
+  </si>
+  <si>
+    <t>Optimieren der Algorithmen in Bezug auf Autonomes Fahren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Fahrzeug zusammen gebaut und fährt in eine Richtung.</t>
+  </si>
+  <si>
+    <t>Erster autonomer Prototyp funktionsfähig (Seitensteuerung).</t>
+  </si>
+  <si>
+    <t>Zweiter autonomer Prototyp funktionsfähig (Mittensteuerung).</t>
+  </si>
+  <si>
+    <t>https://www.banggood.com/de/4WD-DIY-Smart-Chassis-Car-Kit-For-Arduino-with-UNO-R3-Ultrasonic-ModuleMotor-drive-board-p-1332912.html?akmClientCountry=AT&amp;rmmds=detail-left-hotproducts__4&amp;cur_warehouse=CN</t>
+  </si>
+  <si>
+    <t>4WD DIY Smart Chassis Auto Satz Für Arduino mit UNO R3 + Ultraschallmodul + Motorantrieb Board / 3-6V TT Motor</t>
+  </si>
+  <si>
+    <t>Die Fahrzeug soll einen vorgegebenen Parcour (mit beliebigen 90 Grad rechts und links Kurven) mit 20cm hohen Seitenwänden so schnell wie möglich absolvieren können.</t>
+  </si>
+  <si>
+    <t>Gegeneinander antreten und schauen wer der schnellste ist.</t>
+  </si>
+  <si>
+    <t>Das Fahrzeug darf nicht ferngesteuert werden sondern muss vollständig autonom fahren.</t>
+  </si>
+  <si>
+    <t>Überprüfen ob Funkmodule verbaut sind.</t>
+  </si>
+  <si>
+    <t>Optische Überprüfung.</t>
+  </si>
+  <si>
+    <t>Erste Schätzung [h]</t>
+  </si>
+  <si>
+    <t>Verkabelung der Hardwarekomponenten (Antrieb) mit dem Arduino</t>
+  </si>
+  <si>
+    <t>Aufbau Sensorik</t>
+  </si>
+  <si>
+    <t>Aufbau Antrieb</t>
+  </si>
+  <si>
+    <t>Auswahl der Sensoren (4x Infrarot, 1x Ultraschall bereits vorhanden)</t>
+  </si>
+  <si>
+    <t>Verkabelung + Positionierung der Sensoren</t>
+  </si>
+  <si>
+    <t>Inbetriebnahme weiterer Sensoren</t>
+  </si>
+  <si>
+    <t>Software Algorithmen</t>
+  </si>
+  <si>
+    <t>Debugmöglichkeit überlegen (Bluetooth, LCD-Display, …)</t>
+  </si>
+  <si>
+    <t>Inbetriebnahme Debugmöglichkeit</t>
+  </si>
+  <si>
+    <t>SW-Konzept überlegen (Seitenregelung, Mittenregelung)</t>
+  </si>
+  <si>
+    <t>Implementierung Mittenregelung (inkl. Konfigurationsmöglichkeiten)</t>
+  </si>
+  <si>
+    <t>Implementierung Seitenregelung (inkl. Konfigurationsmöglichkeiten)</t>
+  </si>
+  <si>
+    <t>Konzept für Drehzahlmessung pro Motor überlegen</t>
+  </si>
+  <si>
+    <t>Implementierung Drehzahlmessung</t>
+  </si>
+  <si>
+    <t>Projektorganisation</t>
+  </si>
+  <si>
+    <t>Planungsaktivitäten laufend</t>
+  </si>
+  <si>
+    <t>Aufsetzen Git Repository</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>Fahrzeug zusammenbauen</t>
+  </si>
+  <si>
+    <t>länger gedauert wegen Folie abziehen</t>
+  </si>
+  <si>
+    <t>Bereits investiert [h]</t>
+  </si>
+  <si>
+    <t>Geschätzt Verbleibend [h]</t>
+  </si>
+  <si>
+    <t>Bestellung und Auswahl 4WD-Car-Kits</t>
+  </si>
+  <si>
+    <t>Sonstige Bestellungen (Akkus, Schalter, Ladeschaltung)</t>
+  </si>
+  <si>
+    <t>Projektende</t>
+  </si>
+  <si>
+    <t>erst nach Erhalt der Kits festgestellt, dass weitere Komponenten benötigt werden</t>
+  </si>
+  <si>
+    <t>Bestllung aus China hat länger gedauert!</t>
+  </si>
+  <si>
+    <t>Das Fahrzeug soll ansteuerungsmäßig nicht vom 4WD DIY Smart Chassis Auto abweichen bzw. erweitert werden (4 Motoren, 4 Kodierscheiben, 1 Motortreiber Platine, 2x Batteriefächer sind ausreichend).</t>
+  </si>
+  <si>
+    <t>Freiheiten zur individuellen Optimierung</t>
+  </si>
+  <si>
+    <t>Das Fahrzeug soll mittels 4 Infrarotsensoren und 1 Ultraschalsensor die Umgebung ausreichend erfassen können um autonom steuern zu können.</t>
+  </si>
+  <si>
+    <t>Das Fahrzeug darf beliebig mit Aktuatoren und Ausgabemöglichkeiten (z.B. Funkverbindung zum Erfassen von Testdaten, LCD-Ausgabe) erweitert werden.</t>
+  </si>
+  <si>
+    <t>Das Fahrzeug darf beliebig mit Sensoren (z.B. Video-Kamera) erweitert werden.</t>
+  </si>
+  <si>
+    <t>Je nach Ausgabemöglichkeit Testkonzept überlegen</t>
+  </si>
+  <si>
+    <t>Je nach Sensoren Testkonzept überlegen</t>
+  </si>
+  <si>
+    <t>Optische Überprüfung + Codereview + Testausgaben zur Plausibilisierung.
+Für Inrarotsensoren: Stabilität überprüfen ob bei etwa der gleichen Entfernung der Sensor je nach Konfiguration (Poti) anspricht
+Für Ultraschallsensor: Ausgabe der Entfernung in Zentimetern - nachmessen</t>
+  </si>
+  <si>
+    <t>https://www.neuhold-elektronik.at/catshop/product_info.php?cPath=36_230&amp;products_id=7117</t>
+  </si>
+  <si>
+    <t>Ladeschaltung für Li-Ion Akku</t>
+  </si>
+  <si>
+    <t>Li-Ion Akkus</t>
+  </si>
+  <si>
+    <t>Kippschalter</t>
+  </si>
+  <si>
+    <t>Kleinteile (Muttern + Schrauben)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>in Schule vorhanden</t>
+  </si>
+  <si>
+    <t>Inbetriebnahme mit erstem Dummy Test (gerade aus fahren mittels Pin auf High/Low)</t>
+  </si>
+  <si>
+    <t>Dummy Ansteuerung mittels PWM</t>
+  </si>
+  <si>
+    <t>Vorerst keine weiteren Sensoren geplant</t>
+  </si>
+  <si>
+    <t>Zweiter Servo</t>
+  </si>
+  <si>
+    <t>Länger gebraucht für Erweiterung des Aufbaus für US-Sensor mit zweitem Servo</t>
+  </si>
+  <si>
+    <t>Vergessen einzuplanen -&gt; beide Servos anzusteuern.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>06.02.2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+16.03.2020</t>
+    </r>
+  </si>
+  <si>
+    <t>Inbetriebnahme der Infrarotsensoren (inkl. sauberem leicht verwendbarem Interface zur Auswertung)</t>
+  </si>
+  <si>
+    <t>Inbetriebnahme des Ultraschallsensors (inkl. sauberem leicht verwendbarem Interface zur Auswertung)</t>
+  </si>
+  <si>
+    <t>Konzept + Inbetriebnahme der Servo-Ansteuerung (inkl. sauberem leicht verwendbarem Interface zur Positionierung)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10.02.2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+16.03.2020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>06.02.2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+23.03.2020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12.02.2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+30.03.2020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>16.02.2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+02.04.2020</t>
+    </r>
+  </si>
+  <si>
+    <t>Akkus und Schalter sowie Ladeschaltung bestellen</t>
+  </si>
+  <si>
+    <t>Bestellungen eingetroffen</t>
+  </si>
+  <si>
+    <t>Zu wenige Akkus geliefert bekommen, Poele bestellt nach</t>
+  </si>
+  <si>
+    <t>Projekt-Template auf Moodle raufladen</t>
+  </si>
+  <si>
+    <t>Dokumentationsvorlage herzeigen</t>
+  </si>
+  <si>
+    <t>Planung aktualisiert</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1284,7 @@
     <numFmt numFmtId="165" formatCode="_-[$€-C07]\ * #,##0.00_-;\-[$€-C07]\ * #,##0.00_-;_-[$€-C07]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0\-0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1218,18 +1371,26 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1591,7 +1752,7 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1631,9 +1792,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1651,9 +1809,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1840,35 +1995,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1901,6 +2035,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1973,21 +2122,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2018,7 +2170,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2029,7 +2259,17 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2097,16 +2337,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
@@ -2371,14 +2601,14 @@
     </tableColumn>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Typ" dataDxfId="9"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Initiator" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Datum" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Thema + Beschreibung" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Prio" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Status" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Verantwortlicher" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Termin" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Bemerkungen/Status/Ergebnisse" totalsRowFunction="count" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Projektmeeting" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Datum" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Thema + Beschreibung" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Prio" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Status" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Verantwortlicher" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Termin" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Bemerkungen/Status/Ergebnisse" totalsRowFunction="count" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Projektmeeting" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2711,7 +2941,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:F19"/>
+      <selection activeCell="A30" sqref="A30:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2725,264 +2955,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
+      <c r="A1" s="106" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="58">
+      <c r="A3" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="56">
         <v>43709</v>
       </c>
-      <c r="C3" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" s="85" t="s">
-        <v>122</v>
+      <c r="C3" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="58">
+      <c r="A4" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="56">
         <v>43646</v>
       </c>
-      <c r="C4" s="66" t="s">
-        <v>104</v>
+      <c r="C4" s="64" t="s">
+        <v>79</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="117" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="118"/>
+      <c r="A7" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="114"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="65">
+      <c r="A8" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="63">
         <v>1</v>
       </c>
-      <c r="E8" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="F8" s="120"/>
+      <c r="E8" s="115" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="116"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="122"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="118"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="124"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="120"/>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="126"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="122"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="73"/>
+      <c r="A14" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="71"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="146" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="132"/>
+      <c r="A15" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="127" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="129"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="135" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="134"/>
+      <c r="A16" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="130" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="132"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="77" t="s">
-        <v>203</v>
-      </c>
-      <c r="B17" s="135" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="134"/>
+      <c r="A17" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="130" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="132"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="77" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" s="135" t="s">
-        <v>208</v>
-      </c>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="134"/>
+      <c r="A18" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="132"/>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="62"/>
-      <c r="B19" s="136"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="138"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="135"/>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="73"/>
+      <c r="A22" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="71"/>
     </row>
     <row r="23" spans="1:6" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="113"/>
+      <c r="A23" s="107" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="109"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="76"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="117" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="127"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="117" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="127"/>
-      <c r="F26" s="118"/>
+      <c r="A26" s="113" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="123"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="123"/>
+      <c r="F26" s="114"/>
     </row>
     <row r="27" spans="1:6" s="4" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="114" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="115"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="128" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="129"/>
-      <c r="F27" s="130"/>
+      <c r="A27" s="110" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="111"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="126"/>
     </row>
     <row r="28" spans="1:6" s="4" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="114" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28" s="115"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="116"/>
+      <c r="A28" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="111"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="112"/>
     </row>
     <row r="29" spans="1:6" s="4" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="114"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="116"/>
+      <c r="A29" s="110" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="110" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="111"/>
+      <c r="F29" s="112"/>
     </row>
     <row r="30" spans="1:6" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="107"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="109"/>
+      <c r="A30" s="103" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -3032,33 +3266,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="105" customWidth="1"/>
-    <col min="2" max="2" width="36.77734375" style="105" customWidth="1"/>
-    <col min="3" max="16384" width="11.5546875" style="105"/>
+    <col min="1" max="1" width="13.21875" style="96" customWidth="1"/>
+    <col min="2" max="2" width="36.77734375" style="96" customWidth="1"/>
+    <col min="3" max="16384" width="11.5546875" style="96"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="106" t="s">
-        <v>188</v>
+      <c r="A1" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="97" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="105" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="105" t="s">
-        <v>192</v>
+      <c r="A2" s="96" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="105" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="105" t="s">
-        <v>191</v>
+      <c r="A3" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3072,283 +3306,204 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.109375" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="90" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" style="90" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="83" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" style="83" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="110" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
+      <c r="A1" s="106" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="139" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="139"/>
+      <c r="B3" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="136"/>
     </row>
     <row r="4" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="139" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="139"/>
+      <c r="B4" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="136"/>
     </row>
     <row r="5" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="139" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="139"/>
+      <c r="B5" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="136"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="91" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>10</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="86"/>
+    </row>
+    <row r="10" spans="1:4" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>20</v>
+      </c>
+      <c r="B10" s="85" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="86"/>
+    </row>
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>30</v>
+      </c>
+      <c r="B11" s="85" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="86">
-        <v>10</v>
-      </c>
-      <c r="B9" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="93"/>
-    </row>
-    <row r="10" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
-        <v>20</v>
-      </c>
-      <c r="B10" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="95" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="95"/>
-    </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
-        <v>30</v>
-      </c>
-      <c r="B11" s="94" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="95"/>
+      <c r="D11" s="86"/>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>40</v>
       </c>
-      <c r="B12" s="94" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="95"/>
-    </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
-        <v>41</v>
-      </c>
-      <c r="B13" s="94" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="95" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="95"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
-        <v>42</v>
-      </c>
-      <c r="B14" s="94" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-    </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="B12" s="85" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="86"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
         <v>50</v>
       </c>
-      <c r="B15" s="94" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-    </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="B13" s="85" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="100" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="86"/>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
         <v>51</v>
       </c>
-      <c r="B16" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="95" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="95"/>
-    </row>
-    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+      <c r="B14" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="86"/>
+    </row>
+    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
         <v>52</v>
       </c>
-      <c r="B17" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="95" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="96"/>
-    </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
-        <v>53</v>
-      </c>
-      <c r="B18" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
+      <c r="B15" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="100" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="86"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>50</v>
+      </c>
+      <c r="B16" s="85"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>60</v>
+      </c>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>70</v>
+      </c>
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
-        <v>54</v>
-      </c>
-      <c r="B19" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-    </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
-        <v>55</v>
-      </c>
-      <c r="B20" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-    </row>
-    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
-        <v>60</v>
-      </c>
-      <c r="B21" s="94" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-    </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
-        <v>61</v>
-      </c>
-      <c r="B22" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-    </row>
-    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="87">
-        <v>62</v>
-      </c>
-      <c r="B23" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-    </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="87">
-        <v>63</v>
-      </c>
-      <c r="B24" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-    </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="88">
-        <v>70</v>
-      </c>
-      <c r="B25" s="94" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-    </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="88">
+      <c r="A19" s="15">
         <v>80</v>
       </c>
-      <c r="B26" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-    </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="88">
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
         <v>90</v>
       </c>
-      <c r="B27" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-    </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="88">
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
         <v>100</v>
       </c>
-      <c r="B28" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-    </row>
-    <row r="29" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="89">
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="20">
         <v>110</v>
       </c>
-      <c r="B29" s="97" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3368,10 +3523,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3381,11 +3536,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="140" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
+      <c r="A1" s="137" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -3393,18 +3548,18 @@
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="141" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" s="141"/>
-      <c r="C3" s="141"/>
+      <c r="A3" s="138" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
     </row>
     <row r="4" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="141" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="141"/>
-      <c r="C4" s="141"/>
+      <c r="A4" s="138" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
@@ -3413,203 +3568,196 @@
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="77">
+        <v>43845</v>
+      </c>
+      <c r="C7" s="77">
+        <v>43776</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="81">
+        <v>43862</v>
+      </c>
+      <c r="C8" s="81">
+        <v>43835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="79">
+        <v>43891</v>
+      </c>
+      <c r="C9" s="23"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="81">
+        <v>43922</v>
+      </c>
+      <c r="C10" s="23"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="79">
-        <v>43081</v>
-      </c>
-      <c r="C7" s="79">
-        <v>43081</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="83">
-        <v>43092</v>
-      </c>
-      <c r="C8" s="83"/>
-    </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="81">
-        <v>43132</v>
-      </c>
-      <c r="C9" s="25"/>
-    </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="81">
-        <v>43138</v>
-      </c>
-      <c r="C10" s="25"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="81">
-        <v>43160</v>
-      </c>
-      <c r="C11" s="25"/>
+      <c r="B11" s="79">
+        <v>43952</v>
+      </c>
+      <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>163</v>
+      <c r="A12" s="25" t="s">
+        <v>128</v>
       </c>
       <c r="B12" s="81">
-        <v>43248</v>
-      </c>
-      <c r="C12" s="25"/>
+        <v>43983</v>
+      </c>
+      <c r="C12" s="23"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="81">
-        <v>43262</v>
-      </c>
-      <c r="C13" s="25"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="23"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="81"/>
-      <c r="C15" s="25"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="23"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="25"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="23"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="27"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="27"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="27"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="27"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="27"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-    </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="32"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="30"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3627,10 +3775,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3645,382 +3793,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="140" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
+      <c r="A1" s="137" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:6" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
         <v>1</v>
       </c>
-      <c r="B4" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="25">
+      <c r="B4" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="23">
         <v>1</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="29"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
+      <c r="D4" s="26">
+        <v>33</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
         <v>2</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="25">
+      <c r="B5" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="23">
         <v>2</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="26">
+        <v>8</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
+        <v>3</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="23">
+        <v>1</v>
+      </c>
+      <c r="D6" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
+        <v>4</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1</v>
+      </c>
+      <c r="D7" s="26">
+        <v>2</v>
+      </c>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
+        <v>5</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="26">
         <v>0</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
-        <v>3</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="25">
+      <c r="E8" s="25"/>
+      <c r="F8" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
+        <v>6</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="23">
         <v>1</v>
       </c>
-      <c r="D6" s="28">
-        <v>31.9</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
-        <v>4</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="25">
-        <v>1</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
-        <v>5</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="25">
-        <v>1</v>
-      </c>
-      <c r="D8" s="28">
+      <c r="D9" s="26">
+        <v>0</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
         <v>10</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="25">
-        <v>6</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="25">
-        <v>2</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="29"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
-        <v>7</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="29"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
-        <v>8</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="25">
-        <v>9</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="A12" s="23">
+        <v>11</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
-        <v>10</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="31"/>
+      <c r="A13" s="23">
+        <v>12</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
-        <v>11</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
+      <c r="A14" s="23">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
-        <v>12</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
+      <c r="A15" s="23">
+        <v>14</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="25">
-        <v>13</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+      <c r="A16" s="23">
+        <v>26</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
-        <v>14</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
+      <c r="A17" s="23">
+        <v>27</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="25">
-        <v>15</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
+      <c r="A18" s="23">
+        <v>28</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
-        <v>16</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="25">
-        <v>17</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="25">
-        <v>18</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
-        <v>19</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="25">
-        <v>20</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="25">
-        <v>21</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="25">
-        <v>22</v>
-      </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="25">
-        <v>23</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="25">
-        <v>24</v>
-      </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="25">
-        <v>25</v>
-      </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="25">
-        <v>26</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="25">
-        <v>27</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="25">
-        <v>28</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="25">
+      <c r="A19" s="23">
         <v>29</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="26">
+      <c r="B19" s="25"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="24">
         <v>30</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-    </row>
-    <row r="34" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="6">
-        <f>SUM(D4:D33)</f>
-        <v>41.9</v>
+      <c r="B20" s="30"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6">
+        <f>SUM(D4:D20)</f>
+        <v>45.5</v>
       </c>
     </row>
   </sheetData>
@@ -4028,22 +4052,23 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{8B33B61F-DFEA-4099-80E4-D65817B84FD6}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{0115A034-A1F6-4817-BF62-87090ACF39A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4051,243 +4076,772 @@
     <col min="1" max="1" width="7.109375" customWidth="1"/>
     <col min="2" max="2" width="65.88671875" customWidth="1"/>
     <col min="3" max="3" width="20.109375" style="10" customWidth="1"/>
-    <col min="4" max="5" width="16.109375" style="10" customWidth="1"/>
-    <col min="6" max="7" width="14.44140625" style="10" customWidth="1"/>
+    <col min="4" max="6" width="13.6640625" style="10" customWidth="1"/>
+    <col min="7" max="8" width="14.44140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="110" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="106" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>10</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="144"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>11</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="143">
+        <v>2</v>
+      </c>
+      <c r="E5" s="17">
+        <v>3</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1</v>
+      </c>
+      <c r="G5" s="102" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="145"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>12</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="143">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="102">
+        <v>43862</v>
+      </c>
+      <c r="H6" s="102">
+        <v>44177</v>
+      </c>
+      <c r="I6" s="145"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>13</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="143">
+        <v>3</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="102" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="145"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>14</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="143">
+        <v>3</v>
+      </c>
+      <c r="E8" s="17">
+        <v>3</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0</v>
+      </c>
+      <c r="G8" s="102">
+        <v>44136</v>
+      </c>
+      <c r="H8" s="102">
+        <v>44166</v>
+      </c>
+      <c r="I8" s="145" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>15</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="17">
+        <v>4</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="G9" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="102">
+        <v>43885</v>
+      </c>
+      <c r="I9" s="145" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="145"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>20</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="145"/>
+    </row>
+    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>21</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="143">
+        <v>1</v>
+      </c>
+      <c r="E12" s="17">
+        <v>2</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0</v>
+      </c>
+      <c r="G12" s="102">
+        <v>43863</v>
+      </c>
+      <c r="H12" s="102">
+        <v>43832</v>
+      </c>
+      <c r="I12" s="145" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>22</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="143">
+        <v>2</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0</v>
+      </c>
+      <c r="G13" s="102">
+        <v>43864</v>
+      </c>
+      <c r="H13" s="102">
+        <v>43833</v>
+      </c>
+      <c r="I13" s="145"/>
+    </row>
+    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>23</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="143">
+        <v>2</v>
+      </c>
+      <c r="E14" s="17">
+        <v>2</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+      <c r="G14" s="102">
+        <v>43865</v>
+      </c>
+      <c r="H14" s="102">
+        <v>43835</v>
+      </c>
+      <c r="I14" s="145"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>24</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="143">
+        <v>2</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <v>2</v>
+      </c>
+      <c r="G15" s="102">
+        <v>43866</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="145"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="156">
+        <v>25</v>
+      </c>
+      <c r="B16" s="157" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="158" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="159">
+        <v>4</v>
+      </c>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="155"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="156">
+        <v>26</v>
+      </c>
+      <c r="B17" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="158" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="159">
+        <v>12</v>
+      </c>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="155"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="145"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <v>30</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="145"/>
+    </row>
+    <row r="20" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
+        <v>31</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="143">
+        <v>3</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+      <c r="G20" s="102">
+        <v>43866</v>
+      </c>
+      <c r="H20" s="102">
+        <v>43833</v>
+      </c>
+      <c r="I20" s="145" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>32</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="143">
+        <v>2</v>
+      </c>
+      <c r="E21" s="17">
+        <v>3</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0</v>
+      </c>
+      <c r="G21" s="102">
+        <v>43866</v>
+      </c>
+      <c r="H21" s="102">
+        <v>43833</v>
+      </c>
+      <c r="I21" s="145" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <v>33</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="143">
+        <v>4</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0</v>
+      </c>
+      <c r="F22" s="17">
+        <v>4</v>
+      </c>
+      <c r="G22" s="102" t="s">
+        <v>207</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="145"/>
+    </row>
+    <row r="23" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
+        <v>34</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="143">
+        <v>4</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
+      <c r="F23" s="17">
+        <v>4</v>
+      </c>
+      <c r="G23" s="102" t="s">
+        <v>212</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="145"/>
+    </row>
+    <row r="24" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
+        <v>35</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0</v>
+      </c>
+      <c r="F24" s="17">
+        <v>4</v>
+      </c>
+      <c r="G24" s="102" t="s">
+        <v>212</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="145" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="156">
+        <v>36</v>
+      </c>
+      <c r="B25" s="157" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="158" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="159"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="155"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="145"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="18">
+        <v>40</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="145"/>
+    </row>
+    <row r="28" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="32">
         <v>41</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
-        <v>11</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="B28" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="149">
+        <v>1</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31">
+        <v>1</v>
+      </c>
+      <c r="G28" s="102" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" s="31"/>
+      <c r="I28" s="146"/>
+    </row>
+    <row r="29" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="32">
         <v>42</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
-        <v>12</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
-        <v>13</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
-        <v>14</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
-        <v>20</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
-        <v>21</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
-        <v>22</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
-        <v>23</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
-        <v>30</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
-        <v>31</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="B29" s="101" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="149">
+        <v>3</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31">
+        <v>3</v>
+      </c>
+      <c r="G29" s="102" t="s">
+        <v>211</v>
+      </c>
+      <c r="H29" s="31"/>
+      <c r="I29" s="146"/>
+    </row>
+    <row r="30" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="32">
+        <v>43</v>
+      </c>
+      <c r="B30" s="101" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="149">
+        <v>2</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31">
+        <v>2</v>
+      </c>
+      <c r="G30" s="102" t="s">
+        <v>213</v>
+      </c>
+      <c r="H30" s="31"/>
+      <c r="I30" s="146"/>
+    </row>
+    <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="32">
+        <v>44</v>
+      </c>
+      <c r="B31" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="149">
+        <v>6</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31">
+        <v>6</v>
+      </c>
+      <c r="G31" s="102" t="s">
+        <v>214</v>
+      </c>
+      <c r="H31" s="31"/>
+      <c r="I31" s="146"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="160">
+        <v>45</v>
+      </c>
+      <c r="B32" s="161" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="162" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="163">
+        <v>6</v>
+      </c>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="146"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="32"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="146"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="32"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="146"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="32"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="146"/>
+    </row>
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="147"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D37" s="10">
+        <f>SUM(D11:D36)</f>
+        <v>54</v>
+      </c>
+      <c r="E37" s="10">
+        <f>SUM(E11:E36)</f>
+        <v>8</v>
+      </c>
+      <c r="F37" s="10">
+        <f>SUM(F11:F36)</f>
+        <v>26</v>
+      </c>
+      <c r="I37" s="148"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I38" s="148"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:I9" xr:uid="{1DD3AEAA-94C2-470D-B0C0-AF95E418F66F}"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4295,36 +4849,36 @@
     <col min="1" max="1" width="5.88671875" style="10" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" style="9" customWidth="1"/>
     <col min="3" max="3" width="13" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="164" customWidth="1"/>
     <col min="5" max="5" width="51.44140625" style="9" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="9" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" style="9" customWidth="1"/>
     <col min="8" max="8" width="18.88671875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="164" customWidth="1"/>
     <col min="10" max="10" width="38.6640625" style="9" customWidth="1"/>
     <col min="11" max="11" width="20.109375" style="9" customWidth="1"/>
     <col min="12" max="16384" width="11.44140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>1</v>
@@ -4332,7 +4886,7 @@
       <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="165" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -4347,7 +4901,7 @@
       <c r="H3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="165" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="12" t="s">
@@ -4357,626 +4911,616 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
         <f t="shared" ref="A4:A33" si="0">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="166">
+        <v>43833</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="37">
-        <v>42655</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="37" t="s">
+      <c r="G4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="37">
-        <v>42657</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="39" t="s">
+      <c r="H4" s="35" t="s">
         <v>16</v>
       </c>
+      <c r="I4" s="166">
+        <v>43885</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="K4" s="37"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="40">
+      <c r="A5" s="38">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="42">
-        <v>42655</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="42">
-        <v>42657</v>
-      </c>
-      <c r="J5" s="30" t="s">
+      <c r="C5" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="167">
+        <v>43884</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="G5" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="40" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="40">
+      <c r="I5" s="167">
+        <v>43899</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="41"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="42">
-        <v>42650</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42">
-        <v>42657</v>
-      </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="43" t="s">
+      <c r="B6" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="40">
+      <c r="D6" s="167">
+        <v>43893</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="167">
+        <v>43906</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="42">
-        <v>42655</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="42" t="s">
+      <c r="B7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="167">
+        <v>43893</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="42">
-        <v>42657</v>
-      </c>
-      <c r="J7" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="43" t="s">
+      <c r="G7" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="40" t="s">
         <v>16</v>
       </c>
+      <c r="I7" s="167">
+        <v>43899</v>
+      </c>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="40">
+      <c r="A8" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="40">
+      <c r="A9" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="40">
+      <c r="A10" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="42"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="40"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="40">
+      <c r="A11" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="42"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="40"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="40">
+      <c r="A12" s="38">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="42"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="40">
+      <c r="A13" s="38">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="42"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="40"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="40">
+      <c r="A14" s="38">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="40">
+      <c r="A15" s="38">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="42"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="40">
+      <c r="A16" s="38">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="42"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="40">
+      <c r="A17" s="38">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="42"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="167"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="40">
+      <c r="A18" s="38">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="40">
+      <c r="A19" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="42"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="40"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="40">
+      <c r="A20" s="38">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="42"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="40">
+      <c r="A21" s="38">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="42"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="40">
+      <c r="A22" s="38">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="42"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="40"/>
     </row>
     <row r="23" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40">
+      <c r="A23" s="38">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="42"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="40"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="40">
+      <c r="A24" s="38">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="42"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="40"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="40">
+      <c r="A25" s="38">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="42"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="40"/>
     </row>
     <row r="26" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40">
+      <c r="A26" s="38">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="42"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="40"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="40">
+      <c r="A27" s="38">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="42"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="40"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="40">
+      <c r="A28" s="38">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="42"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="40"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="40">
+      <c r="A29" s="38">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="42"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="40"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="40">
+      <c r="A30" s="38">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="42"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="40"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="40">
+      <c r="A31" s="38">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="42"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="40"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="40">
+      <c r="A32" s="38">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="42"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="40"/>
     </row>
     <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="45">
+      <c r="A33" s="43">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="46"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="168"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="44"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="50"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="169"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="169"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="48"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="54"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="52"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="52"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B36" s="9" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B37" s="9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B38" s="9" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G39" s="9" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E45" s="57"/>
+      <c r="E45" s="55"/>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="4"/>
@@ -4987,8 +5531,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5001,7 +5546,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5016,513 +5561,513 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="140" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
+      <c r="A1" s="137" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:8" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="27">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="25">
+      <c r="B4" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="23">
         <v>4</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="23">
         <v>4</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="23">
         <f>C4*D4</f>
         <v>16</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="27"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="25">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="25">
+      <c r="B5" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="23">
         <v>1</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="23">
         <v>5</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="23">
         <f t="shared" ref="E5:E33" si="0">C5*D5</f>
         <v>5</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
+      <c r="A6" s="25">
         <v>3</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25">
+      <c r="B6" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="27">
+      <c r="A7" s="25">
         <v>4</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25">
+      <c r="B7" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
+      <c r="A8" s="25">
         <v>5</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25">
+      <c r="B8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
+      <c r="A9" s="25">
         <v>6</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25">
+      <c r="B9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="27">
+      <c r="A10" s="25">
         <v>7</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25">
+      <c r="B10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+      <c r="A11" s="25">
         <v>8</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25">
+      <c r="B11" s="25"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
+      <c r="A12" s="25">
         <v>9</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25">
+      <c r="B12" s="25"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="27">
+      <c r="A13" s="25">
         <v>10</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25">
+      <c r="B13" s="25"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="27">
+      <c r="A14" s="25">
         <v>11</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25">
+      <c r="B14" s="25"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="27">
+      <c r="A15" s="25">
         <v>12</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25">
+      <c r="B15" s="25"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="27">
+      <c r="A16" s="25">
         <v>13</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25">
+      <c r="B16" s="25"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="27">
+      <c r="A17" s="25">
         <v>14</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25">
+      <c r="B17" s="25"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="27">
+      <c r="A18" s="25">
         <v>15</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25">
+      <c r="B18" s="25"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+      <c r="A19" s="25">
         <v>16</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25">
+      <c r="B19" s="25"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="27">
+      <c r="A20" s="25">
         <v>17</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25">
+      <c r="B20" s="25"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="27">
+      <c r="A21" s="25">
         <v>18</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25">
+      <c r="B21" s="25"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="27">
+      <c r="A22" s="25">
         <v>19</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25">
+      <c r="B22" s="25"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="27">
+      <c r="A23" s="25">
         <v>20</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25">
+      <c r="B23" s="25"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="27">
+      <c r="A24" s="25">
         <v>21</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25">
+      <c r="B24" s="25"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="27">
+      <c r="A25" s="25">
         <v>22</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25">
+      <c r="B25" s="25"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="27">
+      <c r="A26" s="25">
         <v>23</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25">
+      <c r="B26" s="25"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="27">
+      <c r="A27" s="25">
         <v>24</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25">
+      <c r="B27" s="25"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="27">
+      <c r="A28" s="25">
         <v>25</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25">
+      <c r="B28" s="25"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="27">
+      <c r="A29" s="25">
         <v>26</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25">
+      <c r="B29" s="25"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="27">
+      <c r="A30" s="25">
         <v>27</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25">
+      <c r="B30" s="25"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="27">
+      <c r="A31" s="25">
         <v>28</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25">
+      <c r="B31" s="25"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="27">
+      <c r="A32" s="25">
         <v>29</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25">
+      <c r="B32" s="25"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="32">
+      <c r="A33" s="30">
         <v>30</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26">
+      <c r="B33" s="30"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5563,301 +6108,301 @@
   <sheetData>
     <row r="1" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="101" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="101" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="101" t="s">
-        <v>174</v>
+      <c r="A4" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="100" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="102" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="102" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="102" t="s">
-        <v>75</v>
+      <c r="A5" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="100" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="102" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="102" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="102" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="98" t="s">
-        <v>175</v>
+      <c r="A6" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="89" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="100" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" s="102" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="102" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="102" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="99" t="s">
-        <v>183</v>
-      </c>
-      <c r="L7" s="99" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="99" t="s">
-        <v>186</v>
+      <c r="A7" s="91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="90" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="100" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="102" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="102" t="s">
-        <v>168</v>
-      </c>
-      <c r="K8" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" s="100" t="s">
-        <v>78</v>
+      <c r="A8" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="91" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="100" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="K9" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="N9" s="100" t="s">
-        <v>79</v>
+      <c r="A9" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="K9" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="91" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="100"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="K10" s="100" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" s="100" t="s">
-        <v>80</v>
+      <c r="A10" s="91"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="K10" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="91" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="K11" s="100" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="N11" s="100" t="s">
-        <v>77</v>
+      <c r="A11" s="91"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="K11" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="91" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="K12" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="104" t="s">
-        <v>185</v>
-      </c>
-      <c r="N12" s="100" t="s">
-        <v>184</v>
+      <c r="A12" s="91"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="K12" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="N12" s="91" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="100"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="100"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="100"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="100"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="100"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" s="144" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144"/>
+      <c r="A21" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="141" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="103" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="145" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" s="145"/>
-      <c r="D22" s="145"/>
+      <c r="A22" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="142" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="103" t="s">
-        <v>178</v>
-      </c>
-      <c r="B23" s="145" t="s">
-        <v>182</v>
-      </c>
-      <c r="C23" s="145"/>
-      <c r="D23" s="145"/>
+      <c r="A23" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="142" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="103" t="s">
-        <v>180</v>
-      </c>
-      <c r="B24" s="145" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="145"/>
-      <c r="D24" s="145"/>
+      <c r="A24" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="142" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="100"/>
-      <c r="B25" s="143"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="143"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="100"/>
-      <c r="B26" s="143"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="100"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="100"/>
-      <c r="B28" s="143"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="143"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="100"/>
-      <c r="B29" s="143"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="143"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="140"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5893,7 +6438,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5905,179 +6450,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="140" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
+      <c r="A1" s="137" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="79">
-        <v>43081</v>
-      </c>
-      <c r="B4" s="80">
-        <v>4</v>
-      </c>
-      <c r="C4" s="78" t="s">
-        <v>95</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="77">
+        <v>43893</v>
+      </c>
+      <c r="B4" s="78">
+        <v>1</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="27"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="27"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="25"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="27"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="25"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="25"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="25"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="27"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="25"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="27"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="25"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="25"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="25"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="25"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="25"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="25"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="25"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="25"/>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="32"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/project/Projekt-Steuerung_Selbstfahrendes-Auto.xlsx
+++ b/project/Projekt-Steuerung_Selbstfahrendes-Auto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\car\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00411019-7777-4F76-B7C8-EB9E39ACB42F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299795FF-778B-4501-BA1A-2F41E57B522D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="718" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="718" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektüberblick" sheetId="2" r:id="rId1"/>
@@ -974,9 +974,6 @@
     <t>4WD DIY Smart Chassis Auto Satz Für Arduino mit UNO R3 + Ultraschallmodul + Motorantrieb Board / 3-6V TT Motor</t>
   </si>
   <si>
-    <t>Die Fahrzeug soll einen vorgegebenen Parcour (mit beliebigen 90 Grad rechts und links Kurven) mit 20cm hohen Seitenwänden so schnell wie möglich absolvieren können.</t>
-  </si>
-  <si>
     <t>Gegeneinander antreten und schauen wer der schnellste ist.</t>
   </si>
   <si>
@@ -1273,6 +1270,9 @@
   </si>
   <si>
     <t>Planung aktualisiert</t>
+  </si>
+  <si>
+    <t>Das Fahrzeug soll einen vorgegebenen Parcour (mit beliebigen 90 Grad rechts und links Kurven) mit 20cm hohen Seitenwänden so schnell wie möglich absolvieren können.</t>
   </si>
 </sst>
 </file>
@@ -2050,6 +2050,87 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2169,87 +2250,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2259,7 +2259,17 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2309,26 +2319,6 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
@@ -2337,6 +2327,16 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
@@ -2601,14 +2601,14 @@
     </tableColumn>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Typ" dataDxfId="9"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Initiator" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Datum" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Thema + Beschreibung" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Prio" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Status" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Verantwortlicher" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Termin" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Bemerkungen/Status/Ergebnisse" totalsRowFunction="count" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Projektmeeting" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Datum" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Thema + Beschreibung" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Prio" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Status" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Verantwortlicher" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Termin" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Bemerkungen/Status/Ergebnisse" totalsRowFunction="count" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Projektmeeting" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2940,8 +2940,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2955,14 +2955,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="133" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="s">
@@ -2986,7 +2986,7 @@
         <v>61</v>
       </c>
       <c r="B4" s="56">
-        <v>43646</v>
+        <v>44012</v>
       </c>
       <c r="C4" s="64" t="s">
         <v>79</v>
@@ -3012,10 +3012,10 @@
       <c r="D7" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="114"/>
+      <c r="F7" s="141"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="62" t="s">
@@ -3030,34 +3030,34 @@
       <c r="D8" s="63">
         <v>1</v>
       </c>
-      <c r="E8" s="115" t="s">
+      <c r="E8" s="142" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="116"/>
+      <c r="F8" s="143"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="58"/>
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
       <c r="D9" s="59"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="118"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="145"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="58"/>
       <c r="B10" s="58"/>
       <c r="C10" s="58"/>
       <c r="D10" s="59"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="120"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="147"/>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="60"/>
       <c r="B11" s="60"/>
       <c r="C11" s="60"/>
       <c r="D11" s="61"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="122"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="149"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="72"/>
@@ -3082,57 +3082,57 @@
       <c r="A15" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="127" t="s">
+      <c r="B15" s="154" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="129"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="156"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="157" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="132"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="159"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="157" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="132"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="159"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="130" t="s">
+      <c r="B18" s="157" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="132"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="159"/>
     </row>
     <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="60"/>
-      <c r="B19" s="133"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="135"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="162"/>
     </row>
     <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -3146,14 +3146,14 @@
       <c r="F22" s="71"/>
     </row>
     <row r="23" spans="1:6" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="107" t="s">
+      <c r="A23" s="134" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="109"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="136"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="74"/>
@@ -3165,58 +3165,58 @@
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="113" t="s">
+      <c r="A26" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="123"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="113" t="s">
+      <c r="B26" s="150"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="123"/>
-      <c r="F26" s="114"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="141"/>
     </row>
     <row r="27" spans="1:6" s="4" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="B27" s="111"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="126"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="153"/>
     </row>
     <row r="28" spans="1:6" s="4" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="B28" s="111"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="110"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="112"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="139"/>
     </row>
     <row r="29" spans="1:6" s="4" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="111"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="110" t="s">
+      <c r="B29" s="138"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="E29" s="111"/>
-      <c r="F29" s="112"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="139"/>
     </row>
     <row r="30" spans="1:6" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="103" t="s">
+      <c r="A30" s="130" t="s">
         <v>147</v>
       </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="105"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -3309,7 +3309,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3321,29 +3321,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="136"/>
+      <c r="C3" s="163"/>
     </row>
     <row r="4" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="163" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="136"/>
+      <c r="C4" s="163"/>
     </row>
     <row r="5" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="136" t="s">
+      <c r="B5" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="136"/>
+      <c r="C5" s="163"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3365,10 +3365,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C9" s="86" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" s="86"/>
     </row>
@@ -3377,10 +3377,10 @@
         <v>20</v>
       </c>
       <c r="B10" s="85" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C10" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="86"/>
     </row>
@@ -3389,10 +3389,10 @@
         <v>30</v>
       </c>
       <c r="B11" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="86" t="s">
         <v>153</v>
-      </c>
-      <c r="C11" s="86" t="s">
-        <v>154</v>
       </c>
       <c r="D11" s="86"/>
     </row>
@@ -3401,10 +3401,10 @@
         <v>40</v>
       </c>
       <c r="B12" s="85" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="86" t="s">
         <v>155</v>
-      </c>
-      <c r="C12" s="86" t="s">
-        <v>156</v>
       </c>
       <c r="D12" s="86"/>
     </row>
@@ -3413,7 +3413,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="85" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C13" s="100" t="s">
         <v>120</v>
@@ -3425,10 +3425,10 @@
         <v>51</v>
       </c>
       <c r="B14" s="85" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C14" s="100" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D14" s="86"/>
     </row>
@@ -3437,10 +3437,10 @@
         <v>52</v>
       </c>
       <c r="B15" s="85" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C15" s="100" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D15" s="86"/>
     </row>
@@ -3536,11 +3536,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -3548,18 +3548,18 @@
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="165" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
     </row>
     <row r="4" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="165" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
@@ -3793,14 +3793,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:6" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3846,7 +3846,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="23">
         <v>2</v>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -3864,7 +3864,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="23">
         <v>1</v>
@@ -3880,7 +3880,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="23">
         <v>1</v>
@@ -3895,17 +3895,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>198</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>199</v>
       </c>
       <c r="D8" s="26">
         <v>0</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -3913,7 +3913,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="23">
         <v>1</v>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -4082,16 +4082,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -4105,13 +4105,13 @@
         <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>26</v>
@@ -4120,7 +4120,7 @@
         <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -4128,27 +4128,27 @@
         <v>10</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
+        <v>172</v>
+      </c>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="144"/>
+      <c r="I4" s="104"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>11</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="143">
+      <c r="D5" s="103">
         <v>2</v>
       </c>
       <c r="E5" s="17">
@@ -4158,22 +4158,22 @@
         <v>1</v>
       </c>
       <c r="G5" s="102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H5" s="17"/>
-      <c r="I5" s="145"/>
+      <c r="I5" s="105"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>12</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="143">
+      <c r="D6" s="103">
         <v>1</v>
       </c>
       <c r="E6" s="17">
@@ -4188,7 +4188,7 @@
       <c r="H6" s="102">
         <v>44177</v>
       </c>
-      <c r="I6" s="145"/>
+      <c r="I6" s="105"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
@@ -4200,7 +4200,7 @@
       <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="143">
+      <c r="D7" s="103">
         <v>3</v>
       </c>
       <c r="E7" s="17">
@@ -4210,22 +4210,22 @@
         <v>2.5</v>
       </c>
       <c r="G7" s="102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H7" s="17"/>
-      <c r="I7" s="145"/>
+      <c r="I7" s="105"/>
     </row>
     <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>14</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="143">
+      <c r="D8" s="103">
         <v>3</v>
       </c>
       <c r="E8" s="17">
@@ -4240,8 +4240,8 @@
       <c r="H8" s="102">
         <v>44166</v>
       </c>
-      <c r="I8" s="145" t="s">
-        <v>185</v>
+      <c r="I8" s="105" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
@@ -4249,12 +4249,12 @@
         <v>15</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="143" t="s">
+      <c r="D9" s="103" t="s">
         <v>120</v>
       </c>
       <c r="E9" s="17">
@@ -4269,47 +4269,47 @@
       <c r="H9" s="102">
         <v>43885</v>
       </c>
-      <c r="I9" s="145" t="s">
-        <v>184</v>
+      <c r="I9" s="105" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="151"/>
+      <c r="D10" s="111"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="102"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="145"/>
+      <c r="I10" s="105"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>20</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="151"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="145"/>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>21</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="143">
+      <c r="D12" s="103">
         <v>1</v>
       </c>
       <c r="E12" s="17">
@@ -4324,8 +4324,8 @@
       <c r="H12" s="102">
         <v>43832</v>
       </c>
-      <c r="I12" s="145" t="s">
-        <v>178</v>
+      <c r="I12" s="105" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -4333,12 +4333,12 @@
         <v>22</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="143">
+      <c r="D13" s="103">
         <v>2</v>
       </c>
       <c r="E13" s="17">
@@ -4353,19 +4353,19 @@
       <c r="H13" s="102">
         <v>43833</v>
       </c>
-      <c r="I13" s="145"/>
+      <c r="I13" s="105"/>
     </row>
     <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>23</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="143">
+      <c r="D14" s="103">
         <v>2</v>
       </c>
       <c r="E14" s="17">
@@ -4380,19 +4380,19 @@
       <c r="H14" s="102">
         <v>43835</v>
       </c>
-      <c r="I14" s="145"/>
+      <c r="I14" s="105"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>24</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="143">
+      <c r="D15" s="103">
         <v>2</v>
       </c>
       <c r="E15" s="17">
@@ -4405,83 +4405,83 @@
         <v>43866</v>
       </c>
       <c r="H15" s="17"/>
-      <c r="I15" s="145"/>
+      <c r="I15" s="105"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="156">
+      <c r="A16" s="116">
         <v>25</v>
       </c>
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="117" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="119">
+        <v>4</v>
+      </c>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="115"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="116">
+        <v>26</v>
+      </c>
+      <c r="B17" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="158" t="s">
+      <c r="C17" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="159">
-        <v>4</v>
-      </c>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="155"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="156">
-        <v>26</v>
-      </c>
-      <c r="B17" s="157" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" s="158" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="159">
+      <c r="D17" s="119">
         <v>12</v>
       </c>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="155"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="115"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="151"/>
+      <c r="D18" s="111"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="145"/>
+      <c r="I18" s="105"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>30</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="151"/>
+      <c r="D19" s="111"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="145"/>
+      <c r="I19" s="105"/>
     </row>
     <row r="20" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>31</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="143">
+      <c r="D20" s="103">
         <v>3</v>
       </c>
       <c r="E20" s="17">
@@ -4496,8 +4496,8 @@
       <c r="H20" s="102">
         <v>43833</v>
       </c>
-      <c r="I20" s="145" t="s">
-        <v>203</v>
+      <c r="I20" s="105" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
@@ -4505,12 +4505,12 @@
         <v>32</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="143">
+      <c r="D21" s="103">
         <v>2</v>
       </c>
       <c r="E21" s="17">
@@ -4525,8 +4525,8 @@
       <c r="H21" s="102">
         <v>43833</v>
       </c>
-      <c r="I21" s="145" t="s">
-        <v>205</v>
+      <c r="I21" s="105" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
@@ -4534,12 +4534,12 @@
         <v>33</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="143">
+      <c r="D22" s="103">
         <v>4</v>
       </c>
       <c r="E22" s="17">
@@ -4549,22 +4549,22 @@
         <v>4</v>
       </c>
       <c r="G22" s="102" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H22" s="17"/>
-      <c r="I22" s="145"/>
+      <c r="I22" s="105"/>
     </row>
     <row r="23" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>34</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="143">
+      <c r="D23" s="103">
         <v>4</v>
       </c>
       <c r="E23" s="17">
@@ -4574,22 +4574,22 @@
         <v>4</v>
       </c>
       <c r="G23" s="102" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H23" s="17"/>
-      <c r="I23" s="145"/>
+      <c r="I23" s="105"/>
     </row>
     <row r="24" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>35</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="143" t="s">
+      <c r="D24" s="103" t="s">
         <v>120</v>
       </c>
       <c r="E24" s="17">
@@ -4599,67 +4599,67 @@
         <v>4</v>
       </c>
       <c r="G24" s="102" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H24" s="17"/>
-      <c r="I24" s="145" t="s">
-        <v>206</v>
+      <c r="I24" s="105" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="156">
+      <c r="A25" s="116">
         <v>36</v>
       </c>
-      <c r="B25" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" s="158" t="s">
+      <c r="B25" s="117" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="159"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="155"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="115"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
-      <c r="D26" s="151"/>
+      <c r="D26" s="111"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
-      <c r="I26" s="145"/>
+      <c r="I26" s="105"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>40</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C27" s="17"/>
-      <c r="D27" s="151"/>
+      <c r="D27" s="111"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="145"/>
+      <c r="I27" s="105"/>
     </row>
     <row r="28" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A28" s="32">
         <v>41</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="149">
+      <c r="D28" s="109">
         <v>1</v>
       </c>
       <c r="E28" s="31"/>
@@ -4667,22 +4667,22 @@
         <v>1</v>
       </c>
       <c r="G28" s="102" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H28" s="31"/>
-      <c r="I28" s="146"/>
+      <c r="I28" s="106"/>
     </row>
     <row r="29" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="32">
         <v>42</v>
       </c>
       <c r="B29" s="101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="149">
+      <c r="D29" s="109">
         <v>3</v>
       </c>
       <c r="E29" s="31"/>
@@ -4690,22 +4690,22 @@
         <v>3</v>
       </c>
       <c r="G29" s="102" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H29" s="31"/>
-      <c r="I29" s="146"/>
+      <c r="I29" s="106"/>
     </row>
     <row r="30" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A30" s="32">
         <v>43</v>
       </c>
       <c r="B30" s="101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="149">
+      <c r="D30" s="109">
         <v>2</v>
       </c>
       <c r="E30" s="31"/>
@@ -4713,22 +4713,22 @@
         <v>2</v>
       </c>
       <c r="G30" s="102" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H30" s="31"/>
-      <c r="I30" s="146"/>
+      <c r="I30" s="106"/>
     </row>
     <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A31" s="32">
         <v>44</v>
       </c>
       <c r="B31" s="101" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="149">
+      <c r="D31" s="109">
         <v>6</v>
       </c>
       <c r="E31" s="31"/>
@@ -4736,73 +4736,73 @@
         <v>6</v>
       </c>
       <c r="G31" s="102" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H31" s="31"/>
-      <c r="I31" s="146"/>
+      <c r="I31" s="106"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="160">
+      <c r="A32" s="120">
         <v>45</v>
       </c>
-      <c r="B32" s="161" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" s="162" t="s">
+      <c r="B32" s="121" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="163">
+      <c r="D32" s="123">
         <v>6</v>
       </c>
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
       <c r="G32" s="102"/>
       <c r="H32" s="31"/>
-      <c r="I32" s="146"/>
+      <c r="I32" s="106"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="32"/>
       <c r="B33" s="101"/>
       <c r="C33" s="31"/>
-      <c r="D33" s="152"/>
+      <c r="D33" s="112"/>
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
       <c r="H33" s="31"/>
-      <c r="I33" s="146"/>
+      <c r="I33" s="106"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="32"/>
       <c r="B34" s="101"/>
       <c r="C34" s="31"/>
-      <c r="D34" s="152"/>
+      <c r="D34" s="112"/>
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
       <c r="G34" s="31"/>
       <c r="H34" s="31"/>
-      <c r="I34" s="146"/>
+      <c r="I34" s="106"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="32"/>
       <c r="B35" s="101"/>
       <c r="C35" s="31"/>
-      <c r="D35" s="152"/>
+      <c r="D35" s="112"/>
       <c r="E35" s="31"/>
       <c r="F35" s="31"/>
       <c r="G35" s="31"/>
       <c r="H35" s="31"/>
-      <c r="I35" s="146"/>
+      <c r="I35" s="106"/>
     </row>
     <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="20"/>
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="153"/>
+      <c r="D36" s="113"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
-      <c r="I36" s="147"/>
+      <c r="I36" s="107"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D37" s="10">
@@ -4817,10 +4817,10 @@
         <f>SUM(F11:F36)</f>
         <v>26</v>
       </c>
-      <c r="I37" s="148"/>
+      <c r="I37" s="108"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I38" s="148"/>
+      <c r="I38" s="108"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:I9" xr:uid="{1DD3AEAA-94C2-470D-B0C0-AF95E418F66F}"/>
@@ -4840,8 +4840,8 @@
   </sheetPr>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4849,31 +4849,31 @@
     <col min="1" max="1" width="5.88671875" style="10" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" style="9" customWidth="1"/>
     <col min="3" max="3" width="13" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="164" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="124" customWidth="1"/>
     <col min="5" max="5" width="51.44140625" style="9" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="9" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" style="9" customWidth="1"/>
     <col min="8" max="8" width="18.88671875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" style="164" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" style="124" customWidth="1"/>
     <col min="10" max="10" width="38.6640625" style="9" customWidth="1"/>
     <col min="11" max="11" width="20.109375" style="9" customWidth="1"/>
     <col min="12" max="16384" width="11.44140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4886,7 +4886,7 @@
       <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="165" t="s">
+      <c r="D3" s="125" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -4901,7 +4901,7 @@
       <c r="H3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="165" t="s">
+      <c r="I3" s="125" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="12" t="s">
@@ -4922,11 +4922,11 @@
       <c r="C4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="166">
+      <c r="D4" s="126">
         <v>43833</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>12</v>
@@ -4937,11 +4937,11 @@
       <c r="H4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="166">
+      <c r="I4" s="126">
         <v>43885</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K4" s="37"/>
     </row>
@@ -4956,11 +4956,11 @@
       <c r="C5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="167">
+      <c r="D5" s="127">
         <v>43884</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>21</v>
@@ -4971,7 +4971,7 @@
       <c r="H5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="167">
+      <c r="I5" s="127">
         <v>43899</v>
       </c>
       <c r="J5" s="28"/>
@@ -4988,11 +4988,11 @@
       <c r="C6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="167">
+      <c r="D6" s="127">
         <v>43893</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F6" s="40" t="s">
         <v>21</v>
@@ -5003,7 +5003,7 @@
       <c r="H6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="167">
+      <c r="I6" s="127">
         <v>43906</v>
       </c>
       <c r="J6" s="28"/>
@@ -5020,22 +5020,22 @@
       <c r="C7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="167">
+      <c r="D7" s="127">
         <v>43893</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F7" s="40" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="167">
+      <c r="I7" s="127">
         <v>43899</v>
       </c>
       <c r="J7" s="41"/>
@@ -5048,12 +5048,12 @@
       </c>
       <c r="B8" s="38"/>
       <c r="C8" s="40"/>
-      <c r="D8" s="167"/>
+      <c r="D8" s="127"/>
       <c r="E8" s="42"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
-      <c r="I8" s="167"/>
+      <c r="I8" s="127"/>
       <c r="J8" s="41"/>
       <c r="K8" s="41"/>
     </row>
@@ -5064,12 +5064,12 @@
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="40"/>
-      <c r="D9" s="167"/>
+      <c r="D9" s="127"/>
       <c r="E9" s="42"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
-      <c r="I9" s="167"/>
+      <c r="I9" s="127"/>
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
     </row>
@@ -5080,12 +5080,12 @@
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="40"/>
-      <c r="D10" s="167"/>
+      <c r="D10" s="127"/>
       <c r="E10" s="42"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
-      <c r="I10" s="167"/>
+      <c r="I10" s="127"/>
       <c r="J10" s="41"/>
       <c r="K10" s="40"/>
     </row>
@@ -5096,12 +5096,12 @@
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="40"/>
-      <c r="D11" s="167"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="42"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
-      <c r="I11" s="167"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="41"/>
       <c r="K11" s="40"/>
     </row>
@@ -5112,12 +5112,12 @@
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="40"/>
-      <c r="D12" s="167"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="28"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
       <c r="H12" s="40"/>
-      <c r="I12" s="167"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="28"/>
       <c r="K12" s="40"/>
     </row>
@@ -5128,12 +5128,12 @@
       </c>
       <c r="B13" s="38"/>
       <c r="C13" s="40"/>
-      <c r="D13" s="167"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="42"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
       <c r="H13" s="40"/>
-      <c r="I13" s="167"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="41"/>
       <c r="K13" s="40"/>
     </row>
@@ -5144,12 +5144,12 @@
       </c>
       <c r="B14" s="38"/>
       <c r="C14" s="40"/>
-      <c r="D14" s="167"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="42"/>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
-      <c r="I14" s="167"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
     </row>
@@ -5160,12 +5160,12 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="40"/>
-      <c r="D15" s="167"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="42"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
-      <c r="I15" s="167"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="41"/>
       <c r="K15" s="40"/>
     </row>
@@ -5176,12 +5176,12 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="40"/>
-      <c r="D16" s="167"/>
+      <c r="D16" s="127"/>
       <c r="E16" s="42"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
-      <c r="I16" s="167"/>
+      <c r="I16" s="127"/>
       <c r="J16" s="41"/>
       <c r="K16" s="40"/>
     </row>
@@ -5192,12 +5192,12 @@
       </c>
       <c r="B17" s="38"/>
       <c r="C17" s="40"/>
-      <c r="D17" s="167"/>
+      <c r="D17" s="127"/>
       <c r="E17" s="42"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
-      <c r="I17" s="167"/>
+      <c r="I17" s="127"/>
       <c r="J17" s="41"/>
       <c r="K17" s="40"/>
     </row>
@@ -5208,12 +5208,12 @@
       </c>
       <c r="B18" s="38"/>
       <c r="C18" s="40"/>
-      <c r="D18" s="167"/>
+      <c r="D18" s="127"/>
       <c r="E18" s="41"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="40"/>
-      <c r="I18" s="167"/>
+      <c r="I18" s="127"/>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
     </row>
@@ -5224,12 +5224,12 @@
       </c>
       <c r="B19" s="38"/>
       <c r="C19" s="40"/>
-      <c r="D19" s="167"/>
+      <c r="D19" s="127"/>
       <c r="E19" s="42"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
-      <c r="I19" s="167"/>
+      <c r="I19" s="127"/>
       <c r="J19" s="41"/>
       <c r="K19" s="40"/>
     </row>
@@ -5240,12 +5240,12 @@
       </c>
       <c r="B20" s="38"/>
       <c r="C20" s="40"/>
-      <c r="D20" s="167"/>
+      <c r="D20" s="127"/>
       <c r="E20" s="42"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
-      <c r="I20" s="167"/>
+      <c r="I20" s="127"/>
       <c r="J20" s="41"/>
       <c r="K20" s="40"/>
     </row>
@@ -5256,12 +5256,12 @@
       </c>
       <c r="B21" s="38"/>
       <c r="C21" s="40"/>
-      <c r="D21" s="167"/>
+      <c r="D21" s="127"/>
       <c r="E21" s="42"/>
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
       <c r="H21" s="40"/>
-      <c r="I21" s="167"/>
+      <c r="I21" s="127"/>
       <c r="J21" s="41"/>
       <c r="K21" s="40"/>
     </row>
@@ -5272,12 +5272,12 @@
       </c>
       <c r="B22" s="38"/>
       <c r="C22" s="40"/>
-      <c r="D22" s="167"/>
+      <c r="D22" s="127"/>
       <c r="E22" s="42"/>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
-      <c r="I22" s="167"/>
+      <c r="I22" s="127"/>
       <c r="J22" s="41"/>
       <c r="K22" s="40"/>
     </row>
@@ -5288,12 +5288,12 @@
       </c>
       <c r="B23" s="38"/>
       <c r="C23" s="40"/>
-      <c r="D23" s="167"/>
+      <c r="D23" s="127"/>
       <c r="E23" s="42"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
-      <c r="I23" s="167"/>
+      <c r="I23" s="127"/>
       <c r="J23" s="41"/>
       <c r="K23" s="40"/>
     </row>
@@ -5304,12 +5304,12 @@
       </c>
       <c r="B24" s="38"/>
       <c r="C24" s="40"/>
-      <c r="D24" s="167"/>
+      <c r="D24" s="127"/>
       <c r="E24" s="42"/>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
-      <c r="I24" s="167"/>
+      <c r="I24" s="127"/>
       <c r="J24" s="41"/>
       <c r="K24" s="40"/>
     </row>
@@ -5320,12 +5320,12 @@
       </c>
       <c r="B25" s="38"/>
       <c r="C25" s="40"/>
-      <c r="D25" s="167"/>
+      <c r="D25" s="127"/>
       <c r="E25" s="42"/>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
-      <c r="I25" s="167"/>
+      <c r="I25" s="127"/>
       <c r="J25" s="41"/>
       <c r="K25" s="40"/>
     </row>
@@ -5336,12 +5336,12 @@
       </c>
       <c r="B26" s="38"/>
       <c r="C26" s="40"/>
-      <c r="D26" s="167"/>
+      <c r="D26" s="127"/>
       <c r="E26" s="42"/>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
-      <c r="I26" s="167"/>
+      <c r="I26" s="127"/>
       <c r="J26" s="41"/>
       <c r="K26" s="40"/>
     </row>
@@ -5352,12 +5352,12 @@
       </c>
       <c r="B27" s="38"/>
       <c r="C27" s="40"/>
-      <c r="D27" s="167"/>
+      <c r="D27" s="127"/>
       <c r="E27" s="42"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
-      <c r="I27" s="167"/>
+      <c r="I27" s="127"/>
       <c r="J27" s="41"/>
       <c r="K27" s="40"/>
     </row>
@@ -5368,12 +5368,12 @@
       </c>
       <c r="B28" s="38"/>
       <c r="C28" s="40"/>
-      <c r="D28" s="167"/>
+      <c r="D28" s="127"/>
       <c r="E28" s="42"/>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
-      <c r="I28" s="167"/>
+      <c r="I28" s="127"/>
       <c r="J28" s="41"/>
       <c r="K28" s="40"/>
     </row>
@@ -5384,12 +5384,12 @@
       </c>
       <c r="B29" s="38"/>
       <c r="C29" s="40"/>
-      <c r="D29" s="167"/>
+      <c r="D29" s="127"/>
       <c r="E29" s="42"/>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
-      <c r="I29" s="167"/>
+      <c r="I29" s="127"/>
       <c r="J29" s="41"/>
       <c r="K29" s="40"/>
     </row>
@@ -5400,12 +5400,12 @@
       </c>
       <c r="B30" s="38"/>
       <c r="C30" s="40"/>
-      <c r="D30" s="167"/>
+      <c r="D30" s="127"/>
       <c r="E30" s="42"/>
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
-      <c r="I30" s="167"/>
+      <c r="I30" s="127"/>
       <c r="J30" s="41"/>
       <c r="K30" s="40"/>
     </row>
@@ -5416,12 +5416,12 @@
       </c>
       <c r="B31" s="38"/>
       <c r="C31" s="40"/>
-      <c r="D31" s="167"/>
+      <c r="D31" s="127"/>
       <c r="E31" s="42"/>
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
       <c r="H31" s="40"/>
-      <c r="I31" s="167"/>
+      <c r="I31" s="127"/>
       <c r="J31" s="41"/>
       <c r="K31" s="40"/>
     </row>
@@ -5432,12 +5432,12 @@
       </c>
       <c r="B32" s="38"/>
       <c r="C32" s="40"/>
-      <c r="D32" s="167"/>
+      <c r="D32" s="127"/>
       <c r="E32" s="42"/>
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
       <c r="H32" s="40"/>
-      <c r="I32" s="167"/>
+      <c r="I32" s="127"/>
       <c r="J32" s="41"/>
       <c r="K32" s="40"/>
     </row>
@@ -5448,12 +5448,12 @@
       </c>
       <c r="B33" s="43"/>
       <c r="C33" s="44"/>
-      <c r="D33" s="168"/>
+      <c r="D33" s="128"/>
       <c r="E33" s="45"/>
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
-      <c r="I33" s="168"/>
+      <c r="I33" s="128"/>
       <c r="J33" s="46"/>
       <c r="K33" s="44"/>
     </row>
@@ -5461,12 +5461,12 @@
       <c r="A34" s="47"/>
       <c r="B34" s="47"/>
       <c r="C34" s="48"/>
-      <c r="D34" s="169"/>
+      <c r="D34" s="129"/>
       <c r="E34" s="49"/>
       <c r="F34" s="48"/>
       <c r="G34" s="48"/>
       <c r="H34" s="48"/>
-      <c r="I34" s="169"/>
+      <c r="I34" s="129"/>
       <c r="J34" s="50"/>
       <c r="K34" s="48"/>
     </row>
@@ -5561,16 +5561,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E2" s="11"/>
@@ -6338,71 +6338,71 @@
       <c r="A21" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="141" t="s">
+      <c r="B21" s="168" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="168"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="169" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="169"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="169" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="169"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="142" t="s">
+      <c r="B24" s="169" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="91"/>
-      <c r="B25" s="140"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
+      <c r="B25" s="167"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="167"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="91"/>
-      <c r="B26" s="140"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
+      <c r="B26" s="167"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="167"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="91"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="91"/>
-      <c r="B28" s="140"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
+      <c r="B28" s="167"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="91"/>
-      <c r="B29" s="140"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6450,11 +6450,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -6476,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">

--- a/project/Projekt-Steuerung_Selbstfahrendes-Auto.xlsx
+++ b/project/Projekt-Steuerung_Selbstfahrendes-Auto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Projektüberblick" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
     <sheet name="OPL" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Risiken" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Stakeholder - Kommunikation" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Arbeitstagebuch_Thomas" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Arbeitstagebuch_Jahn" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="_Template" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <externalReferences>
@@ -35,7 +35,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="Text13" vbProcedure="false">'PSP - WBS'!$B$22</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_ftn1" vbProcedure="false">'psp - wbs'!#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_ftnref1" vbProcedure="false">'PSP - WBS'!$C$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'PSP - WBS'!$A$3:$I$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'PSP - WBS'!$A$3:$I$9</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="227">
   <si>
     <t xml:space="preserve">Projekt: Selbstfahrendes Auto</t>
   </si>
@@ -666,7 +666,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> -&gt;  Erster Protoyp funktionsfähig
+      <t xml:space="preserve"> -&gt;  Erster Prototyp funktionsfähig
 </t>
     </r>
     <r>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">Bestellung und Auswahl 4WD-Car-Kits</t>
   </si>
   <si>
-    <t xml:space="preserve">Bestllung aus China hat länger gedauert!</t>
+    <t xml:space="preserve">Bestellung aus China hat länger gedauert!</t>
   </si>
   <si>
     <t xml:space="preserve">Sonstige Bestellungen (Akkus, Schalter, Ladeschaltung)</t>
@@ -860,26 +860,8 @@
     <t xml:space="preserve">Verkabelung + Positionierung der Sensoren</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Länger gebraucht für Erweiterung des Aufbaus für US-Sensor mit zweitem Servo
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Probleme durch zu hohe Spannung angelegt an µC -&gt; defekt -&gt; Austausch und Umbau mit Steckbrett (hat zusätzlich 3h gekostet)</t>
-    </r>
+    <t xml:space="preserve">Länger gebraucht für Erweiterung des Aufbaus für US-Sensor mit zweitem Servo
+Probleme durch zu hohe Spannung angelegt an µC -&gt; defekt -&gt; Austausch und Umbau mit Steckbrett (hat zusätzlich 3h gekostet)</t>
   </si>
   <si>
     <t xml:space="preserve">Inbetriebnahme der Infrarotsensoren (inkl. sauberem leicht verwendbarem Interface zur Auswertung)</t>
@@ -936,6 +918,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Funktioniert, aber delay + duration händisch hintereinander einzubauen → ev. Interrupt?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Konzept + Inbetriebnahme der Servo-Ansteuerung (inkl. sauberem leicht verwendbarem Interface zur Positionierung)</t>
   </si>
   <si>
@@ -1101,10 +1086,16 @@
     <t xml:space="preserve">Dokumentationsvorlage herzeigen</t>
   </si>
   <si>
+    <t xml:space="preserve">Nächstes Jahr</t>
+  </si>
+  <si>
     <t xml:space="preserve">Projekt-Template auf Moodle raufladen</t>
   </si>
   <si>
     <t xml:space="preserve">Erinnerung an Excel-Planung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erinnerung am 18.5. erfolgt, Teil der finalen Abgabe im Juni.</t>
   </si>
   <si>
     <t xml:space="preserve">I … Information</t>
@@ -1319,7 +1310,7 @@
     <numFmt numFmtId="170" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="171" formatCode="@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1404,12 +1395,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1635,7 +1620,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="134">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1888,10 +1873,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1925,10 +1906,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1952,10 +1929,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1976,14 +1949,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2016,18 +1981,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2037,10 +1994,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2052,15 +2005,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2080,10 +2033,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2130,30 +2079,6 @@
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2320,9 +2245,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>94680</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2336,7 +2261,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8308080" y="662760"/>
-          <a:ext cx="3069360" cy="2930760"/>
+          <a:ext cx="3071520" cy="2930400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2392,14 +2317,14 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="19.33"/>
@@ -2724,35 +2649,35 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="147" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="147" width="36.77"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="147" width="11.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="132" width="13.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="132" width="36.77"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="132" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="148" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" s="148" t="s">
-        <v>219</v>
+      <c r="A1" s="133" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="133" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="147" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="147" t="s">
-        <v>221</v>
+      <c r="A2" s="132" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="132" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="147" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="147" t="s">
-        <v>223</v>
+      <c r="A3" s="132" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="132" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2773,14 +2698,14 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="37" width="58.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="37" width="58.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="37" width="39.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.67"/>
   </cols>
@@ -2996,13 +2921,13 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3320,7 +3245,7 @@
       <c r="A5" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="31" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="57" t="n">
@@ -3338,7 +3263,7 @@
       <c r="A6" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="31" t="s">
         <v>80</v>
       </c>
       <c r="C6" s="57" t="n">
@@ -3354,7 +3279,7 @@
       <c r="A7" s="57" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="31" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="57" t="n">
@@ -3369,7 +3294,7 @@
       <c r="A8" s="57" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="31" t="s">
         <v>82</v>
       </c>
       <c r="C8" s="57" t="s">
@@ -3387,7 +3312,7 @@
       <c r="A9" s="57" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="31" t="s">
         <v>85</v>
       </c>
       <c r="C9" s="57" t="n">
@@ -3427,13 +3352,13 @@
       <c r="C11" s="57"/>
       <c r="D11" s="61"/>
       <c r="E11" s="31"/>
-      <c r="F11" s="64"/>
+      <c r="F11" s="63"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="57" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="63"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="57"/>
       <c r="D12" s="61"/>
       <c r="E12" s="31"/>
@@ -3453,7 +3378,7 @@
       <c r="A14" s="57" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="63"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="57"/>
       <c r="D14" s="61"/>
       <c r="E14" s="31"/>
@@ -3463,7 +3388,7 @@
       <c r="A15" s="57" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="63"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="57"/>
       <c r="D15" s="61"/>
       <c r="E15" s="31"/>
@@ -3520,12 +3445,12 @@
       <c r="F20" s="36"/>
     </row>
     <row r="21" s="59" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="65"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66" t="n">
+      <c r="C21" s="64"/>
+      <c r="D21" s="65" t="n">
         <f aca="false">SUM(D4:D20)</f>
         <v>45.5</v>
       </c>
@@ -3555,17 +3480,17 @@
   </sheetPr>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="65.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="67" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="67" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="67" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="66" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="66" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="66" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.99"/>
   </cols>
   <sheetData>
@@ -3586,149 +3511,149 @@
       <c r="A3" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="67" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="69" t="n">
+      <c r="A4" s="68" t="n">
         <v>10</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="41" t="n">
         <v>11</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="76" t="n">
+      <c r="D5" s="74" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="75" t="n">
+      <c r="E5" s="73" t="n">
         <v>3.5</v>
       </c>
-      <c r="F5" s="75" t="n">
+      <c r="F5" s="73" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="78"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="76"/>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="41" t="n">
         <v>12</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="76" t="n">
+      <c r="D6" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="75" t="n">
+      <c r="E6" s="73" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="75" t="n">
+      <c r="F6" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="77" t="n">
+      <c r="G6" s="75" t="n">
         <v>43862</v>
       </c>
-      <c r="H6" s="77" t="n">
+      <c r="H6" s="75" t="n">
         <v>44177</v>
       </c>
-      <c r="I6" s="78"/>
+      <c r="I6" s="76"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="41" t="n">
         <v>13</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="76" t="n">
+      <c r="D7" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="E7" s="75" t="n">
+      <c r="E7" s="73" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="75" t="n">
+      <c r="F7" s="73" t="n">
         <v>2.5</v>
       </c>
-      <c r="G7" s="77" t="s">
+      <c r="G7" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="78"/>
-    </row>
-    <row r="8" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="73"/>
+      <c r="I7" s="76"/>
+    </row>
+    <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="41" t="n">
         <v>14</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="76" t="n">
+      <c r="D8" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="E8" s="75" t="n">
+      <c r="E8" s="73" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="75" t="n">
+      <c r="F8" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="77" t="n">
+      <c r="G8" s="75" t="n">
         <v>44136</v>
       </c>
-      <c r="H8" s="77" t="n">
+      <c r="H8" s="75" t="n">
         <v>44166</v>
       </c>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="76" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3736,28 +3661,28 @@
       <c r="A9" s="41" t="n">
         <v>15</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="75" t="n">
+      <c r="E9" s="73" t="n">
         <v>4</v>
       </c>
-      <c r="F9" s="75" t="n">
+      <c r="F9" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="77" t="n">
+      <c r="H9" s="75" t="n">
         <v>43885</v>
       </c>
-      <c r="I9" s="78" t="s">
+      <c r="I9" s="76" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3765,56 +3690,56 @@
       <c r="A10" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="78"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="76"/>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="80" t="n">
+      <c r="A11" s="77" t="n">
         <v>20</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="78"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="76"/>
     </row>
     <row r="12" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="41" t="n">
         <v>21</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="76" t="n">
+      <c r="D12" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="75" t="n">
+      <c r="E12" s="73" t="n">
         <v>2</v>
       </c>
-      <c r="F12" s="75" t="n">
+      <c r="F12" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="77" t="n">
+      <c r="G12" s="75" t="n">
         <v>43863</v>
       </c>
-      <c r="H12" s="77" t="n">
+      <c r="H12" s="75" t="n">
         <v>43832</v>
       </c>
-      <c r="I12" s="78" t="s">
+      <c r="I12" s="76" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3822,173 +3747,175 @@
       <c r="A13" s="41" t="n">
         <v>22</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="76" t="n">
+      <c r="D13" s="74" t="n">
         <v>2</v>
       </c>
-      <c r="E13" s="75" t="n">
+      <c r="E13" s="73" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="75" t="n">
+      <c r="F13" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="G13" s="77" t="n">
+      <c r="G13" s="75" t="n">
         <v>43864</v>
       </c>
-      <c r="H13" s="77" t="n">
+      <c r="H13" s="75" t="n">
         <v>43833</v>
       </c>
-      <c r="I13" s="78"/>
+      <c r="I13" s="76"/>
     </row>
     <row r="14" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="41" t="n">
         <v>23</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="76" t="n">
+      <c r="D14" s="74" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="75" t="n">
+      <c r="E14" s="73" t="n">
         <v>2</v>
       </c>
-      <c r="F14" s="75" t="n">
+      <c r="F14" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="77" t="n">
+      <c r="G14" s="75" t="n">
         <v>43865</v>
       </c>
-      <c r="H14" s="77" t="n">
+      <c r="H14" s="75" t="n">
         <v>43835</v>
       </c>
-      <c r="I14" s="78"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I14" s="76"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="41" t="n">
         <v>24</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="76" t="n">
+      <c r="D15" s="74" t="n">
         <v>2</v>
       </c>
-      <c r="E15" s="75" t="n">
+      <c r="E15" s="73" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="75" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="77" t="n">
+      <c r="G15" s="75" t="n">
         <v>43866</v>
       </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="78"/>
+      <c r="H15" s="75" t="n">
+        <v>43941</v>
+      </c>
+      <c r="I15" s="76"/>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="81" t="n">
+      <c r="A16" s="78" t="n">
         <v>25</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="84" t="n">
+      <c r="D16" s="81" t="n">
         <v>4</v>
       </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="86"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="76"/>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="81" t="n">
+      <c r="A17" s="78" t="n">
         <v>26</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="84" t="n">
+      <c r="D17" s="81" t="n">
         <v>12</v>
       </c>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="86"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="76"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="78"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="76"/>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="80" t="n">
+      <c r="A19" s="77" t="n">
         <v>30</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="78"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="76"/>
     </row>
     <row r="20" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="41" t="n">
         <v>31</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="76" t="n">
+      <c r="D20" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="E20" s="75" t="n">
+      <c r="E20" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="F20" s="75" t="n">
+      <c r="F20" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="G20" s="77" t="n">
+      <c r="G20" s="75" t="n">
         <v>43866</v>
       </c>
-      <c r="H20" s="77" t="n">
+      <c r="H20" s="75" t="n">
         <v>43833</v>
       </c>
-      <c r="I20" s="78" t="s">
+      <c r="I20" s="76" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3996,28 +3923,28 @@
       <c r="A21" s="41" t="n">
         <v>32</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="76" t="n">
+      <c r="D21" s="74" t="n">
         <v>2</v>
       </c>
-      <c r="E21" s="75" t="n">
+      <c r="E21" s="73" t="n">
         <v>6</v>
       </c>
-      <c r="F21" s="75" t="n">
+      <c r="F21" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="G21" s="77" t="n">
+      <c r="G21" s="75" t="n">
         <v>43866</v>
       </c>
-      <c r="H21" s="77" t="n">
+      <c r="H21" s="75" t="n">
         <v>43833</v>
       </c>
-      <c r="I21" s="78" t="s">
+      <c r="I21" s="76" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4025,306 +3952,308 @@
       <c r="A22" s="41" t="n">
         <v>33</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="76" t="n">
+      <c r="D22" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="E22" s="75" t="n">
+      <c r="E22" s="73" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="75" t="n">
+      <c r="F22" s="73" t="n">
         <v>4</v>
       </c>
-      <c r="G22" s="87" t="s">
+      <c r="G22" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="H22" s="75"/>
-      <c r="I22" s="78"/>
-    </row>
-    <row r="23" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="73"/>
+      <c r="I22" s="76"/>
+    </row>
+    <row r="23" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="41" t="n">
         <v>34</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="76" t="n">
+      <c r="D23" s="74" t="n">
         <v>4</v>
       </c>
-      <c r="E23" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="75" t="n">
+      <c r="E23" s="73" t="n">
         <v>4</v>
       </c>
-      <c r="G23" s="87" t="s">
+      <c r="F23" s="73" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="82" t="s">
         <v>121</v>
       </c>
       <c r="H23" s="75"/>
-      <c r="I23" s="78"/>
+      <c r="I23" s="76" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="41" t="n">
         <v>35</v>
       </c>
-      <c r="B24" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="75" t="s">
+      <c r="B24" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="75" t="n">
+      <c r="E24" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="75" t="n">
+      <c r="F24" s="73" t="n">
         <v>4</v>
       </c>
-      <c r="G24" s="87" t="s">
+      <c r="G24" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="H24" s="75"/>
-      <c r="I24" s="78" t="s">
-        <v>123</v>
+      <c r="H24" s="73"/>
+      <c r="I24" s="76" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="81" t="n">
+      <c r="A25" s="78" t="n">
         <v>36</v>
       </c>
-      <c r="B25" s="82" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="83" t="s">
+      <c r="B25" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="84"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="86"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="76"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="74"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="78"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="76"/>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="80" t="n">
+      <c r="A27" s="77" t="n">
         <v>40</v>
       </c>
-      <c r="B27" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="75"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="78"/>
+      <c r="B27" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="76"/>
     </row>
     <row r="28" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="88" t="n">
+      <c r="A28" s="83" t="n">
         <v>41</v>
       </c>
-      <c r="B28" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="75" t="s">
+      <c r="B28" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="89" t="n">
+      <c r="D28" s="84" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="90" t="n">
+      <c r="E28" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="F28" s="90" t="n">
+      <c r="F28" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="G28" s="87" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28" s="90"/>
-      <c r="I28" s="91"/>
+      <c r="G28" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="85"/>
+      <c r="I28" s="86"/>
     </row>
     <row r="29" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="88" t="n">
+      <c r="A29" s="83" t="n">
         <v>42</v>
       </c>
-      <c r="B29" s="92" t="s">
+      <c r="B29" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="84" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="85" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="75" t="s">
+      <c r="H29" s="85"/>
+      <c r="I29" s="86"/>
+    </row>
+    <row r="30" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="83" t="n">
+        <v>43</v>
+      </c>
+      <c r="B30" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="89" t="n">
-        <v>3</v>
-      </c>
-      <c r="E29" s="90" t="n">
+      <c r="D30" s="84" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="F29" s="90" t="n">
-        <v>3</v>
-      </c>
-      <c r="G29" s="87" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29" s="90"/>
-      <c r="I29" s="91"/>
-    </row>
-    <row r="30" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="88" t="n">
-        <v>43</v>
-      </c>
-      <c r="B30" s="92" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="75" t="s">
+      <c r="F30" s="85" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="85"/>
+      <c r="I30" s="86"/>
+    </row>
+    <row r="31" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="83" t="n">
+        <v>44</v>
+      </c>
+      <c r="B31" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="89" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" s="90" t="n">
+      <c r="D31" s="84" t="n">
+        <v>6</v>
+      </c>
+      <c r="E31" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="F30" s="90" t="n">
-        <v>2</v>
-      </c>
-      <c r="G30" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="H30" s="90"/>
-      <c r="I30" s="91"/>
-    </row>
-    <row r="31" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="88" t="n">
-        <v>44</v>
-      </c>
-      <c r="B31" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="75" t="s">
+      <c r="F31" s="85" t="n">
+        <v>6</v>
+      </c>
+      <c r="G31" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="85"/>
+      <c r="I31" s="86"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="88" t="n">
+        <v>45</v>
+      </c>
+      <c r="B32" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="89" t="n">
+      <c r="D32" s="90" t="n">
         <v>6</v>
       </c>
-      <c r="E31" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="G31" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="H31" s="90"/>
-      <c r="I31" s="91"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="93" t="n">
-        <v>45</v>
-      </c>
-      <c r="B32" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="95" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="96" t="n">
-        <v>6</v>
-      </c>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="91"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="86"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="88" t="s">
+      <c r="A33" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="91"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="86"/>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="88"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="91"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="86"/>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="88"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="91"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="86"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="45"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="101"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="93"/>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="67" t="n">
+      <c r="D37" s="66" t="n">
         <f aca="false">SUM(D11:D36)</f>
         <v>54</v>
       </c>
-      <c r="E37" s="67" t="n">
+      <c r="E37" s="66" t="n">
         <f aca="false">SUM(E11:E36)</f>
-        <v>14</v>
-      </c>
-      <c r="F37" s="67" t="n">
+        <v>20</v>
+      </c>
+      <c r="F37" s="66" t="n">
         <f aca="false">SUM(F11:F36)</f>
-        <v>26</v>
-      </c>
-      <c r="I37" s="102"/>
+        <v>22</v>
+      </c>
+      <c r="I37" s="94"/>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I38" s="102"/>
+      <c r="I38" s="94"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:I33"/>
@@ -4350,705 +4279,705 @@
   </sheetPr>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="67" width="5.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="66" width="5.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="103" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="95" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="51.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="103" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="95" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="38.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="1" width="11.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="104" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
+      <c r="A1" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="105" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="105" t="s">
+      <c r="B3" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="C3" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="105" t="s">
+      <c r="D3" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="105" t="s">
+      <c r="E3" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="105" t="s">
+      <c r="F3" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="105" t="s">
+      <c r="G3" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="I3" s="106" t="s">
+      <c r="H3" s="97" t="s">
         <v>142</v>
       </c>
-      <c r="J3" s="105" t="s">
+      <c r="I3" s="98" t="s">
         <v>143</v>
       </c>
-      <c r="K3" s="105" t="s">
+      <c r="J3" s="97" t="s">
         <v>144</v>
       </c>
+      <c r="K3" s="97" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="107" t="n">
+      <c r="A4" s="99" t="n">
         <f aca="false">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="108" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="109" t="s">
+      <c r="B4" s="100" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="110" t="n">
+      <c r="D4" s="102" t="n">
         <v>43833</v>
       </c>
-      <c r="E4" s="111" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="109" t="s">
+      <c r="E4" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="109" t="s">
+      <c r="F4" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="109" t="s">
+      <c r="G4" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="110" t="n">
+      <c r="I4" s="102" t="n">
         <v>43885</v>
       </c>
-      <c r="J4" s="111" t="s">
-        <v>149</v>
-      </c>
-      <c r="K4" s="112"/>
+      <c r="J4" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="103"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="113" t="n">
+      <c r="A5" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="B5" s="114" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="115" t="s">
+      <c r="B5" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="116" t="n">
+      <c r="D5" s="107" t="n">
         <v>43884</v>
       </c>
-      <c r="E5" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="115" t="s">
+      <c r="E5" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="115" t="s">
+      <c r="F5" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="H5" s="115" t="s">
+      <c r="G5" s="106" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="116" t="n">
+      <c r="I5" s="107" t="n">
         <v>43899</v>
       </c>
-      <c r="J5" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="K5" s="117"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="113" t="n">
+      <c r="J5" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="108"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>3</v>
       </c>
-      <c r="B6" s="114" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="115" t="s">
+      <c r="B6" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="116" t="n">
+      <c r="D6" s="107" t="n">
         <v>43893</v>
       </c>
-      <c r="E6" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="F6" s="115" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" s="115" t="s">
+      <c r="E6" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="H6" s="115" t="s">
+      <c r="G6" s="106" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="116" t="n">
+      <c r="I6" s="107" t="n">
         <v>43941</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="117"/>
+      <c r="J6" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="K6" s="108"/>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="113" t="n">
+      <c r="A7" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>4</v>
       </c>
-      <c r="B7" s="114" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="115" t="s">
+      <c r="B7" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="116" t="n">
+      <c r="D7" s="107" t="n">
         <v>43893</v>
       </c>
-      <c r="E7" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="F7" s="115" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" s="115" t="s">
+      <c r="E7" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="H7" s="115" t="s">
+      <c r="G7" s="106" t="s">
+        <v>149</v>
+      </c>
+      <c r="H7" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="116" t="n">
+      <c r="I7" s="107" t="n">
         <v>43899</v>
       </c>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="113" t="n">
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+    </row>
+    <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>5</v>
       </c>
-      <c r="B8" s="113" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="115" t="s">
+      <c r="B8" s="104" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="116" t="n">
+      <c r="D8" s="107" t="n">
         <v>43920</v>
       </c>
-      <c r="E8" s="118" t="s">
-        <v>157</v>
-      </c>
-      <c r="F8" s="115" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="115" t="s">
+      <c r="E8" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="106" t="s">
         <v>152</v>
       </c>
-      <c r="H8" s="115" t="s">
+      <c r="G8" s="106" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="116" t="n">
+      <c r="I8" s="107" t="n">
         <v>43941</v>
       </c>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
+      <c r="J8" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" s="108"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="113" t="n">
+      <c r="A9" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>6</v>
       </c>
-      <c r="B9" s="113"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="113" t="n">
+      <c r="A10" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>7</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="115"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="106"/>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="113" t="n">
+      <c r="A11" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>8</v>
       </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="115"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="106"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="113" t="n">
+      <c r="A12" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>9</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="115"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="106"/>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="113" t="n">
+      <c r="A13" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>10</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="115"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="106"/>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="113" t="n">
+      <c r="A14" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>11</v>
       </c>
-      <c r="B14" s="113"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="113" t="n">
+      <c r="A15" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>12</v>
       </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="115"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="106"/>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="113" t="n">
+      <c r="A16" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>13</v>
       </c>
-      <c r="B16" s="113"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="115"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="106"/>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="113" t="n">
+      <c r="A17" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>14</v>
       </c>
-      <c r="B17" s="113"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="115"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="106"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="113" t="n">
+      <c r="A18" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>15</v>
       </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="113" t="n">
+      <c r="A19" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>16</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="115"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="106"/>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="113" t="n">
+      <c r="A20" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>17</v>
       </c>
-      <c r="B20" s="113"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="115"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="106"/>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="113" t="n">
+      <c r="A21" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>18</v>
       </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="115"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="106"/>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="113" t="n">
+      <c r="A22" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>19</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="115"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="106"/>
     </row>
     <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="113" t="n">
+      <c r="A23" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>20</v>
       </c>
-      <c r="B23" s="113"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="115"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="106"/>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="113" t="n">
+      <c r="A24" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>21</v>
       </c>
-      <c r="B24" s="113"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="115"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="106"/>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="113" t="n">
+      <c r="A25" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>22</v>
       </c>
-      <c r="B25" s="113"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="115"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="106"/>
     </row>
     <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="113" t="n">
+      <c r="A26" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>23</v>
       </c>
-      <c r="B26" s="113"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="115"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="106"/>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="113" t="n">
+      <c r="A27" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>24</v>
       </c>
-      <c r="B27" s="113"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="115"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="106"/>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="113" t="n">
+      <c r="A28" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>25</v>
       </c>
-      <c r="B28" s="113"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="115"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="106"/>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="113" t="n">
+      <c r="A29" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>26</v>
       </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="115"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="106"/>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="113" t="n">
+      <c r="A30" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>27</v>
       </c>
-      <c r="B30" s="113"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="115"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="106"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="106"/>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="113" t="n">
+      <c r="A31" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>28</v>
       </c>
-      <c r="B31" s="113"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="115"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="106"/>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="113" t="n">
+      <c r="A32" s="104" t="n">
         <f aca="false">ROW()-3</f>
         <v>29</v>
       </c>
-      <c r="B32" s="113"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="115"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="106"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="119" t="n">
+      <c r="A33" s="110" t="n">
         <f aca="false">ROW()-3</f>
         <v>30</v>
       </c>
-      <c r="B33" s="119"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="120"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="114"/>
+      <c r="K33" s="111"/>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="124"/>
-      <c r="B34" s="124"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="128"/>
-      <c r="K34" s="125"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="115"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="115"/>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="129"/>
-      <c r="B35" s="129"/>
-      <c r="C35" s="130"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="J35" s="132"/>
-      <c r="K35" s="130"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="115"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="115"/>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G39" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E45" s="133"/>
+      <c r="E45" s="118"/>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E51" s="33"/>
@@ -5085,7 +5014,7 @@
   <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="3.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="33" width="54.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="33" width="54.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="49" width="4.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="33" width="8.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="33" width="59.44"/>
@@ -5095,7 +5024,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="48" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -5113,25 +5042,25 @@
         <v>40</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5139,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C4" s="57" t="n">
         <v>4</v>
@@ -5147,13 +5076,13 @@
       <c r="D4" s="57" t="n">
         <v>4</v>
       </c>
-      <c r="E4" s="134" t="n">
+      <c r="E4" s="119" t="n">
         <f aca="false">C4*D4</f>
         <v>16</v>
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="31" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H4" s="31"/>
     </row>
@@ -5162,7 +5091,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C5" s="57" t="n">
         <v>1</v>
@@ -5170,7 +5099,7 @@
       <c r="D5" s="57" t="n">
         <v>5</v>
       </c>
-      <c r="E5" s="134" t="n">
+      <c r="E5" s="119" t="n">
         <f aca="false">C5*D5</f>
         <v>5</v>
       </c>
@@ -5183,11 +5112,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C6" s="57"/>
       <c r="D6" s="57"/>
-      <c r="E6" s="134" t="n">
+      <c r="E6" s="119" t="n">
         <f aca="false">C6*D6</f>
         <v>0</v>
       </c>
@@ -5200,11 +5129,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C7" s="57"/>
       <c r="D7" s="57"/>
-      <c r="E7" s="134" t="n">
+      <c r="E7" s="119" t="n">
         <f aca="false">C7*D7</f>
         <v>0</v>
       </c>
@@ -5219,7 +5148,7 @@
       <c r="B8" s="31"/>
       <c r="C8" s="57"/>
       <c r="D8" s="57"/>
-      <c r="E8" s="134" t="n">
+      <c r="E8" s="119" t="n">
         <f aca="false">C8*D8</f>
         <v>0</v>
       </c>
@@ -5234,7 +5163,7 @@
       <c r="B9" s="31"/>
       <c r="C9" s="57"/>
       <c r="D9" s="57"/>
-      <c r="E9" s="134" t="n">
+      <c r="E9" s="119" t="n">
         <f aca="false">C9*D9</f>
         <v>0</v>
       </c>
@@ -5249,7 +5178,7 @@
       <c r="B10" s="31"/>
       <c r="C10" s="57"/>
       <c r="D10" s="57"/>
-      <c r="E10" s="134" t="n">
+      <c r="E10" s="119" t="n">
         <f aca="false">C10*D10</f>
         <v>0</v>
       </c>
@@ -5264,7 +5193,7 @@
       <c r="B11" s="31"/>
       <c r="C11" s="57"/>
       <c r="D11" s="57"/>
-      <c r="E11" s="134" t="n">
+      <c r="E11" s="119" t="n">
         <f aca="false">C11*D11</f>
         <v>0</v>
       </c>
@@ -5279,7 +5208,7 @@
       <c r="B12" s="31"/>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="134" t="n">
+      <c r="E12" s="119" t="n">
         <f aca="false">C12*D12</f>
         <v>0</v>
       </c>
@@ -5294,7 +5223,7 @@
       <c r="B13" s="31"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
-      <c r="E13" s="134" t="n">
+      <c r="E13" s="119" t="n">
         <f aca="false">C13*D13</f>
         <v>0</v>
       </c>
@@ -5309,7 +5238,7 @@
       <c r="B14" s="31"/>
       <c r="C14" s="57"/>
       <c r="D14" s="57"/>
-      <c r="E14" s="134" t="n">
+      <c r="E14" s="119" t="n">
         <f aca="false">C14*D14</f>
         <v>0</v>
       </c>
@@ -5324,7 +5253,7 @@
       <c r="B15" s="31"/>
       <c r="C15" s="57"/>
       <c r="D15" s="57"/>
-      <c r="E15" s="134" t="n">
+      <c r="E15" s="119" t="n">
         <f aca="false">C15*D15</f>
         <v>0</v>
       </c>
@@ -5339,7 +5268,7 @@
       <c r="B16" s="31"/>
       <c r="C16" s="57"/>
       <c r="D16" s="57"/>
-      <c r="E16" s="134" t="n">
+      <c r="E16" s="119" t="n">
         <f aca="false">C16*D16</f>
         <v>0</v>
       </c>
@@ -5354,7 +5283,7 @@
       <c r="B17" s="31"/>
       <c r="C17" s="57"/>
       <c r="D17" s="57"/>
-      <c r="E17" s="134" t="n">
+      <c r="E17" s="119" t="n">
         <f aca="false">C17*D17</f>
         <v>0</v>
       </c>
@@ -5369,7 +5298,7 @@
       <c r="B18" s="31"/>
       <c r="C18" s="57"/>
       <c r="D18" s="57"/>
-      <c r="E18" s="134" t="n">
+      <c r="E18" s="119" t="n">
         <f aca="false">C18*D18</f>
         <v>0</v>
       </c>
@@ -5384,7 +5313,7 @@
       <c r="B19" s="31"/>
       <c r="C19" s="57"/>
       <c r="D19" s="57"/>
-      <c r="E19" s="134" t="n">
+      <c r="E19" s="119" t="n">
         <f aca="false">C19*D19</f>
         <v>0</v>
       </c>
@@ -5399,7 +5328,7 @@
       <c r="B20" s="31"/>
       <c r="C20" s="57"/>
       <c r="D20" s="57"/>
-      <c r="E20" s="134" t="n">
+      <c r="E20" s="119" t="n">
         <f aca="false">C20*D20</f>
         <v>0</v>
       </c>
@@ -5414,7 +5343,7 @@
       <c r="B21" s="31"/>
       <c r="C21" s="57"/>
       <c r="D21" s="57"/>
-      <c r="E21" s="134" t="n">
+      <c r="E21" s="119" t="n">
         <f aca="false">C21*D21</f>
         <v>0</v>
       </c>
@@ -5429,7 +5358,7 @@
       <c r="B22" s="31"/>
       <c r="C22" s="57"/>
       <c r="D22" s="57"/>
-      <c r="E22" s="134" t="n">
+      <c r="E22" s="119" t="n">
         <f aca="false">C22*D22</f>
         <v>0</v>
       </c>
@@ -5444,7 +5373,7 @@
       <c r="B23" s="31"/>
       <c r="C23" s="57"/>
       <c r="D23" s="57"/>
-      <c r="E23" s="134" t="n">
+      <c r="E23" s="119" t="n">
         <f aca="false">C23*D23</f>
         <v>0</v>
       </c>
@@ -5459,7 +5388,7 @@
       <c r="B24" s="31"/>
       <c r="C24" s="57"/>
       <c r="D24" s="57"/>
-      <c r="E24" s="134" t="n">
+      <c r="E24" s="119" t="n">
         <f aca="false">C24*D24</f>
         <v>0</v>
       </c>
@@ -5474,7 +5403,7 @@
       <c r="B25" s="31"/>
       <c r="C25" s="57"/>
       <c r="D25" s="57"/>
-      <c r="E25" s="134" t="n">
+      <c r="E25" s="119" t="n">
         <f aca="false">C25*D25</f>
         <v>0</v>
       </c>
@@ -5489,7 +5418,7 @@
       <c r="B26" s="31"/>
       <c r="C26" s="57"/>
       <c r="D26" s="57"/>
-      <c r="E26" s="134" t="n">
+      <c r="E26" s="119" t="n">
         <f aca="false">C26*D26</f>
         <v>0</v>
       </c>
@@ -5504,7 +5433,7 @@
       <c r="B27" s="31"/>
       <c r="C27" s="57"/>
       <c r="D27" s="57"/>
-      <c r="E27" s="134" t="n">
+      <c r="E27" s="119" t="n">
         <f aca="false">C27*D27</f>
         <v>0</v>
       </c>
@@ -5519,7 +5448,7 @@
       <c r="B28" s="31"/>
       <c r="C28" s="57"/>
       <c r="D28" s="57"/>
-      <c r="E28" s="134" t="n">
+      <c r="E28" s="119" t="n">
         <f aca="false">C28*D28</f>
         <v>0</v>
       </c>
@@ -5534,7 +5463,7 @@
       <c r="B29" s="31"/>
       <c r="C29" s="57"/>
       <c r="D29" s="57"/>
-      <c r="E29" s="134" t="n">
+      <c r="E29" s="119" t="n">
         <f aca="false">C29*D29</f>
         <v>0</v>
       </c>
@@ -5549,7 +5478,7 @@
       <c r="B30" s="31"/>
       <c r="C30" s="57"/>
       <c r="D30" s="57"/>
-      <c r="E30" s="134" t="n">
+      <c r="E30" s="119" t="n">
         <f aca="false">C30*D30</f>
         <v>0</v>
       </c>
@@ -5564,7 +5493,7 @@
       <c r="B31" s="31"/>
       <c r="C31" s="57"/>
       <c r="D31" s="57"/>
-      <c r="E31" s="134" t="n">
+      <c r="E31" s="119" t="n">
         <f aca="false">C31*D31</f>
         <v>0</v>
       </c>
@@ -5579,7 +5508,7 @@
       <c r="B32" s="31"/>
       <c r="C32" s="57"/>
       <c r="D32" s="57"/>
-      <c r="E32" s="134" t="n">
+      <c r="E32" s="119" t="n">
         <f aca="false">C32*D32</f>
         <v>0</v>
       </c>
@@ -5594,7 +5523,7 @@
       <c r="B33" s="36"/>
       <c r="C33" s="58"/>
       <c r="D33" s="58"/>
-      <c r="E33" s="135" t="n">
+      <c r="E33" s="120" t="n">
         <f aca="false">C33*D33</f>
         <v>0</v>
       </c>
@@ -5640,7 +5569,7 @@
       <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="25.11"/>
@@ -5648,302 +5577,302 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="136" t="s">
-        <v>176</v>
+      <c r="A1" s="121" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="137" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" s="138" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="138" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="138" t="s">
+      <c r="A4" s="122" t="s">
         <v>182</v>
       </c>
+      <c r="B4" s="123" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="123" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="123" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="139" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="140" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="140" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="140" t="s">
+      <c r="A5" s="124" t="s">
         <v>186</v>
       </c>
+      <c r="B5" s="125" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="125" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="125" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="139" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="140" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="140" t="s">
+      <c r="A6" s="124" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="125" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="125" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="125" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="140" t="s">
-        <v>186</v>
-      </c>
-      <c r="K6" s="141" t="s">
-        <v>190</v>
+      <c r="K6" s="126" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="139" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="140" t="s">
+      <c r="A7" s="124" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="125" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="D7" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="K7" s="122" t="s">
+        <v>197</v>
+      </c>
+      <c r="L7" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="M7" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="N7" s="122" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="124" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="125" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="125" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="140" t="s">
-        <v>193</v>
-      </c>
-      <c r="K7" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="L7" s="137" t="s">
+      <c r="D8" s="125" t="s">
+        <v>203</v>
+      </c>
+      <c r="K8" s="124" t="s">
         <v>195</v>
       </c>
-      <c r="M7" s="137" t="s">
+      <c r="L8" s="124" t="s">
+        <v>189</v>
+      </c>
+      <c r="M8" s="124" t="s">
+        <v>189</v>
+      </c>
+      <c r="N8" s="124" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="124" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="K9" s="124" t="s">
+        <v>195</v>
+      </c>
+      <c r="L9" s="124" t="s">
+        <v>189</v>
+      </c>
+      <c r="M9" s="124" t="s">
         <v>196</v>
       </c>
-      <c r="N7" s="137" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="139" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" s="140" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="140" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8" s="140" t="s">
-        <v>200</v>
-      </c>
-      <c r="K8" s="139" t="s">
-        <v>192</v>
-      </c>
-      <c r="L8" s="139" t="s">
-        <v>186</v>
-      </c>
-      <c r="M8" s="139" t="s">
-        <v>186</v>
-      </c>
-      <c r="N8" s="139" t="s">
+      <c r="N9" s="124" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="124"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="K10" s="124" t="s">
+        <v>202</v>
+      </c>
+      <c r="L10" s="124" t="s">
+        <v>189</v>
+      </c>
+      <c r="M10" s="124" t="s">
+        <v>189</v>
+      </c>
+      <c r="N10" s="124" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="124"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="K11" s="124" t="s">
+        <v>202</v>
+      </c>
+      <c r="L11" s="124" t="s">
+        <v>189</v>
+      </c>
+      <c r="M11" s="124" t="s">
+        <v>196</v>
+      </c>
+      <c r="N11" s="124" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="124"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="K12" s="124" t="s">
+        <v>195</v>
+      </c>
+      <c r="L12" s="124" t="s">
+        <v>196</v>
+      </c>
+      <c r="M12" s="124" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="124" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="124"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="124"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="124"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="124"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="124"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="124"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="124"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="122" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="127" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="128" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="139" t="s">
-        <v>202</v>
-      </c>
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="K9" s="139" t="s">
-        <v>192</v>
-      </c>
-      <c r="L9" s="139" t="s">
-        <v>186</v>
-      </c>
-      <c r="M9" s="139" t="s">
-        <v>193</v>
-      </c>
-      <c r="N9" s="139" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="139"/>
-      <c r="B10" s="140"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="K10" s="139" t="s">
-        <v>199</v>
-      </c>
-      <c r="L10" s="139" t="s">
-        <v>186</v>
-      </c>
-      <c r="M10" s="139" t="s">
-        <v>186</v>
-      </c>
-      <c r="N10" s="139" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="139"/>
-      <c r="B11" s="140"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="K11" s="139" t="s">
-        <v>199</v>
-      </c>
-      <c r="L11" s="139" t="s">
-        <v>186</v>
-      </c>
-      <c r="M11" s="139" t="s">
-        <v>193</v>
-      </c>
-      <c r="N11" s="139" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="139"/>
-      <c r="B12" s="140"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="K12" s="139" t="s">
-        <v>192</v>
-      </c>
-      <c r="L12" s="139" t="s">
-        <v>193</v>
-      </c>
-      <c r="M12" s="139" t="s">
-        <v>53</v>
-      </c>
-      <c r="N12" s="139" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="139"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="139"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="139"/>
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="139"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="139"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="139"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="139"/>
-      <c r="B19" s="140"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="137" t="s">
-        <v>179</v>
-      </c>
-      <c r="B21" s="142" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="143" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22" s="144" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
+      <c r="B22" s="129" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="143" t="s">
-        <v>209</v>
-      </c>
-      <c r="B23" s="144" t="s">
-        <v>210</v>
-      </c>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
+      <c r="A23" s="128" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" s="129" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="143" t="s">
-        <v>211</v>
-      </c>
-      <c r="B24" s="144" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
+      <c r="A24" s="128" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="139"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="145"/>
+      <c r="A25" s="124"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="139"/>
-      <c r="B26" s="145"/>
-      <c r="C26" s="145"/>
-      <c r="D26" s="145"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="139"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
+      <c r="A27" s="124"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="139"/>
-      <c r="B28" s="145"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="145"/>
+      <c r="A28" s="124"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="139"/>
-      <c r="B29" s="145"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="145"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5993,13 +5922,13 @@
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="49" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="49" width="8.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="33" width="61.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="33" width="61.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="33" width="11.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="48" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -6007,24 +5936,24 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="39" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="53" t="n">
         <v>43893</v>
       </c>
-      <c r="B4" s="146" t="n">
+      <c r="B4" s="131" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/project/Projekt-Steuerung_Selbstfahrendes-Auto.xlsx
+++ b/project/Projekt-Steuerung_Selbstfahrendes-Auto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Projektüberblick" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
     <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'PSP - WBS'!$A$3:$I$33</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'PSP - WBS'!$A$3:$I$34</definedName>
     <definedName function="false" hidden="false" name="Arbeitspaket" vbProcedure="false">[1]Stammdaten!$A$9:$A$10</definedName>
     <definedName function="false" hidden="false" name="Personen" vbProcedure="false">[1]Stammdaten!$A$27:$A$28</definedName>
     <definedName function="false" hidden="false" name="Prio" vbProcedure="false">[1]Stammdaten!$A$16:$A$18</definedName>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="232">
   <si>
     <t xml:space="preserve">Projekt: Selbstfahrendes Auto</t>
   </si>
@@ -806,12 +806,12 @@
     <t xml:space="preserve">Planungsaktivitäten laufend</t>
   </si>
   <si>
-    <t xml:space="preserve">Projektende</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aufsetzen Git Repository</t>
   </si>
   <si>
+    <t xml:space="preserve">Nur das Nötigste, Rest hier im Planungsexcel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bestellung und Auswahl 4WD-Car-Kits</t>
   </si>
   <si>
@@ -845,7 +845,13 @@
     <t xml:space="preserve">Konzept für Drehzahlmessung pro Motor überlegen</t>
   </si>
   <si>
-    <t xml:space="preserve">Implementierung Drehzahlmessung</t>
+    <t xml:space="preserve">zusätzliche Hardware gekauft, Hall-Sensoren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D-Druck für Sharp Sensoren Halterungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Stunden zeichnen, 1 Stunde drucken und anpassen</t>
   </si>
   <si>
     <t xml:space="preserve">Aufbau Sensorik</t>
@@ -854,7 +860,7 @@
     <t xml:space="preserve">Auswahl der Sensoren (4x Infrarot, 1x Ultraschall bereits vorhanden)</t>
   </si>
   <si>
-    <t xml:space="preserve">Vorerst keine weiteren Sensoren geplant</t>
+    <t xml:space="preserve">4x Infrarot entfernt, weil einfach nur Schrott, neue Sharp Sensoren besorgt</t>
   </si>
   <si>
     <t xml:space="preserve">Verkabelung + Positionierung der Sensoren</t>
@@ -867,67 +873,33 @@
     <t xml:space="preserve">Inbetriebnahme der Infrarotsensoren (inkl. sauberem leicht verwendbarem Interface zur Auswertung)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">06.02.2020
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">16.03.2020</t>
-    </r>
+    <t xml:space="preserve">cancelled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abgebrochen, Einstellung der Sensoren zu filigran, neue Sensoren gekauft</t>
   </si>
   <si>
     <t xml:space="preserve">Inbetriebnahme des Ultraschallsensors (inkl. sauberem leicht verwendbarem Interface zur Auswertung)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">06.02.2020
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">23.03.2020</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Funktioniert, aber delay + duration händisch hintereinander einzubauen → ev. Interrupt?</t>
+    <t xml:space="preserve">on hold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funktioniert, aber delay + duration händisch hintereinander einzubauen → ev. Interrupt?
+Derzeit on hold, da neue IR Sensoren</t>
   </si>
   <si>
     <t xml:space="preserve">Konzept + Inbetriebnahme der Servo-Ansteuerung (inkl. sauberem leicht verwendbarem Interface zur Positionierung)</t>
   </si>
   <si>
-    <t xml:space="preserve">Vergessen einzuplanen -&gt; beide Servos anzusteuern.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inbetriebnahme weiterer Sensoren</t>
+    <t xml:space="preserve">Vergessen einzuplanen -&gt; beide Servos anzusteuern.
+Derzeit on hold, da neue IR Sensoren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verkabelung + Positionierung der Sharp Infrarot Sensoren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inbetriebnahme der Sharp Infrarotsensoren (inkl. sauberem leicht verwendbarem Interface zur Auswertung)</t>
   </si>
   <si>
     <t xml:space="preserve">Software Algorithmen</t>
@@ -936,90 +908,31 @@
     <t xml:space="preserve">Debugmöglichkeit überlegen (Bluetooth, LCD-Display, …)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">10.02.2020
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">16.03.2020</t>
-    </r>
+    <t xml:space="preserve">LCD Display unpraktisch, da über die Entfernung nicht ablesbar</t>
   </si>
   <si>
     <t xml:space="preserve">Inbetriebnahme Debugmöglichkeit</t>
   </si>
   <si>
+    <t xml:space="preserve">Bluetooth App Inbetriebnahme hat länger gedauert – Fehler nicht gefunden, da für App anscheinend zu schnell übertragen
+Eine Aufzeichnungsmöglichkeit der Daten wird noch benötigt</t>
+  </si>
+  <si>
     <t xml:space="preserve">SW-Konzept überlegen (Seitenregelung, Mittenregelung)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">12.02.2020
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">30.03.2020</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Implementierung Seitenregelung (inkl. Konfigurationsmöglichkeiten)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <strike val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">16.02.2020
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">02.04.2020</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Implementierung Mittenregelung (inkl. Konfigurationsmöglichkeiten)</t>
   </si>
   <si>
+    <t xml:space="preserve">not in scope now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementierung Drehzahlmessung</t>
+  </si>
+  <si>
     <t xml:space="preserve">OPL - Offene Punkte Liste</t>
   </si>
   <si>
@@ -1113,9 +1026,6 @@
     <t xml:space="preserve">Low</t>
   </si>
   <si>
-    <t xml:space="preserve">cancelled</t>
-  </si>
-  <si>
     <t xml:space="preserve">Risikoanalyse</t>
   </si>
   <si>
@@ -1275,7 +1185,10 @@
     <t xml:space="preserve">Aufgabe / Thema</t>
   </si>
   <si>
-    <t xml:space="preserve">Planung aktualisiert</t>
+    <t xml:space="preserve">Tagebuch erst späte begonnen (leider)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan ist, dass das Auto die erste Gerade schnell mittig fahren kann und die erste Kurve erkennt.</t>
   </si>
   <si>
     <t xml:space="preserve">Template</t>
@@ -1300,7 +1213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-C07]dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="_-[$€-C07]\ * #,##0.00_-;\-[$€-C07]\ * #,##0.00_-;_-[$€-C07]\ * \-??_-;_-@_-"/>
@@ -1309,8 +1222,9 @@
     <numFmt numFmtId="169" formatCode="General"/>
     <numFmt numFmtId="170" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="171" formatCode="@"/>
+    <numFmt numFmtId="172" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1389,14 +1303,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <strike val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -1427,7 +1333,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1438,6 +1344,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1909,48 +1821,44 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1969,20 +1877,20 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2005,15 +1913,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2145,7 +2053,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2245,9 +2157,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>94680</xdr:colOff>
+      <xdr:colOff>94320</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2260,13 +2172,13 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8308080" y="662760"/>
-          <a:ext cx="3071520" cy="2930400"/>
+          <a:off x="8309520" y="662760"/>
+          <a:ext cx="3076200" cy="2930040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -2311,13 +2223,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -2628,8 +2540,8 @@
     <hyperlink ref="B18" r:id="rId6" display="https://github.com/philippjahn/car/research"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2639,17 +2551,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="132" width="13.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="132" width="36.77"/>
@@ -2658,32 +2570,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="133" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B1" s="133" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="132" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B2" s="132" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="132" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B3" s="132" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2692,17 +2604,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="37" width="58.87"/>
@@ -2903,8 +2815,8 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2914,20 +2826,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3161,8 +3073,8 @@
     <mergeCell ref="A4:C4"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3171,13 +3083,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3464,8 +3376,8 @@
     <hyperlink ref="F5" r:id="rId2" display="https://www.neuhold-elektronik.at/catshop/product_info.php?cPath=36_230&amp;products_id=7117"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3474,17 +3386,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="65.88"/>
@@ -3568,20 +3480,20 @@
         <v>3.5</v>
       </c>
       <c r="F5" s="73" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="75" t="s">
-        <v>99</v>
+        <v>2</v>
+      </c>
+      <c r="G5" s="75" t="n">
+        <v>44712</v>
       </c>
       <c r="H5" s="73"/>
       <c r="I5" s="76"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="41" t="n">
         <v>12</v>
       </c>
-      <c r="B6" s="72" t="s">
-        <v>100</v>
+      <c r="B6" s="77" t="s">
+        <v>99</v>
       </c>
       <c r="C6" s="73" t="s">
         <v>7</v>
@@ -3590,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="73" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="F6" s="73" t="n">
         <v>0</v>
@@ -3603,7 +3515,7 @@
       </c>
       <c r="I6" s="76"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="41" t="n">
         <v>13</v>
       </c>
@@ -3622,17 +3534,19 @@
       <c r="F7" s="73" t="n">
         <v>2.5</v>
       </c>
-      <c r="G7" s="75" t="s">
-        <v>99</v>
+      <c r="G7" s="75" t="n">
+        <v>44712</v>
       </c>
       <c r="H7" s="73"/>
-      <c r="I7" s="76"/>
+      <c r="I7" s="76" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="41" t="n">
         <v>14</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="77" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="73" t="s">
@@ -3661,7 +3575,7 @@
       <c r="A9" s="41" t="n">
         <v>15</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="77" t="s">
         <v>103</v>
       </c>
       <c r="C9" s="73" t="s">
@@ -3690,7 +3604,7 @@
       <c r="A10" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="72"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="73"/>
       <c r="D10" s="73"/>
       <c r="E10" s="73"/>
@@ -3700,7 +3614,7 @@
       <c r="I10" s="76"/>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="77" t="n">
+      <c r="A11" s="78" t="n">
         <v>20</v>
       </c>
       <c r="B11" s="69" t="s">
@@ -3718,7 +3632,7 @@
       <c r="A12" s="41" t="n">
         <v>21</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="77" t="s">
         <v>106</v>
       </c>
       <c r="C12" s="73" t="s">
@@ -3734,10 +3648,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="75" t="n">
-        <v>43863</v>
+        <v>44599</v>
       </c>
       <c r="H12" s="75" t="n">
-        <v>43832</v>
+        <v>44563</v>
       </c>
       <c r="I12" s="76" t="s">
         <v>107</v>
@@ -3747,7 +3661,7 @@
       <c r="A13" s="41" t="n">
         <v>22</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="77" t="s">
         <v>108</v>
       </c>
       <c r="C13" s="73" t="s">
@@ -3763,10 +3677,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="75" t="n">
-        <v>43864</v>
+        <v>44600</v>
       </c>
       <c r="H13" s="75" t="n">
-        <v>43833</v>
+        <v>44564</v>
       </c>
       <c r="I13" s="76"/>
     </row>
@@ -3774,7 +3688,7 @@
       <c r="A14" s="41" t="n">
         <v>23</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="77" t="s">
         <v>109</v>
       </c>
       <c r="C14" s="73" t="s">
@@ -3790,10 +3704,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="75" t="n">
-        <v>43865</v>
+        <v>44601</v>
       </c>
       <c r="H14" s="75" t="n">
-        <v>43835</v>
+        <v>44566</v>
       </c>
       <c r="I14" s="76"/>
     </row>
@@ -3801,7 +3715,7 @@
       <c r="A15" s="41" t="n">
         <v>24</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="77" t="s">
         <v>110</v>
       </c>
       <c r="C15" s="73" t="s">
@@ -3817,85 +3731,105 @@
         <v>0</v>
       </c>
       <c r="G15" s="75" t="n">
-        <v>43866</v>
+        <v>44602</v>
       </c>
       <c r="H15" s="75" t="n">
-        <v>43941</v>
+        <v>44612</v>
       </c>
       <c r="I15" s="76"/>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="78" t="n">
+    <row r="16" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="41" t="n">
         <v>25</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="81" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="76"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="78" t="n">
+      <c r="D16" s="74" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="73" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="75" t="n">
+        <v>44603</v>
+      </c>
+      <c r="H16" s="75" t="n">
+        <v>44615</v>
+      </c>
+      <c r="I16" s="76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="41" t="n">
         <v>26</v>
       </c>
-      <c r="B17" s="79" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="80" t="s">
+      <c r="B17" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="81" t="n">
-        <v>12</v>
-      </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="76"/>
+      <c r="D17" s="74" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="73" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="75" t="n">
+        <v>44627</v>
+      </c>
+      <c r="H17" s="75" t="n">
+        <v>44627</v>
+      </c>
+      <c r="I17" s="76" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="72"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="73"/>
       <c r="D18" s="73"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
+      <c r="H18" s="75"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="77" t="n">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="78" t="n">
         <v>30</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C19" s="73"/>
       <c r="D19" s="73"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
+      <c r="H19" s="75"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="41" t="n">
         <v>31</v>
       </c>
-      <c r="B20" s="72" t="s">
-        <v>114</v>
+      <c r="B20" s="77" t="s">
+        <v>116</v>
       </c>
       <c r="C20" s="73" t="s">
         <v>7</v>
@@ -3904,27 +3838,27 @@
         <v>3</v>
       </c>
       <c r="E20" s="73" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F20" s="73" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="75" t="n">
-        <v>43866</v>
+        <v>44597</v>
       </c>
       <c r="H20" s="75" t="n">
-        <v>43833</v>
+        <v>44564</v>
       </c>
       <c r="I20" s="76" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="103.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="41" t="n">
         <v>32</v>
       </c>
-      <c r="B21" s="72" t="s">
-        <v>116</v>
+      <c r="B21" s="77" t="s">
+        <v>118</v>
       </c>
       <c r="C21" s="73" t="s">
         <v>7</v>
@@ -3945,15 +3879,15 @@
         <v>43833</v>
       </c>
       <c r="I21" s="76" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="41" t="n">
         <v>33</v>
       </c>
-      <c r="B22" s="72" t="s">
-        <v>118</v>
+      <c r="B22" s="77" t="s">
+        <v>120</v>
       </c>
       <c r="C22" s="73" t="s">
         <v>7</v>
@@ -3965,20 +3899,24 @@
         <v>3</v>
       </c>
       <c r="F22" s="73" t="n">
-        <v>4</v>
-      </c>
-      <c r="G22" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="H22" s="73"/>
-      <c r="I22" s="76"/>
-    </row>
-    <row r="23" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="G22" s="75" t="n">
+        <v>44604</v>
+      </c>
+      <c r="H22" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" s="76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="41" t="n">
         <v>34</v>
       </c>
-      <c r="B23" s="72" t="s">
-        <v>120</v>
+      <c r="B23" s="77" t="s">
+        <v>123</v>
       </c>
       <c r="C23" s="73" t="s">
         <v>7</v>
@@ -3992,20 +3930,22 @@
       <c r="F23" s="73" t="n">
         <v>2</v>
       </c>
-      <c r="G23" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="H23" s="75"/>
+      <c r="G23" s="75" t="n">
+        <v>44603</v>
+      </c>
+      <c r="H23" s="80" t="s">
+        <v>124</v>
+      </c>
       <c r="I23" s="76" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="26.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="41" t="n">
         <v>35</v>
       </c>
-      <c r="B24" s="72" t="s">
-        <v>123</v>
+      <c r="B24" s="77" t="s">
+        <v>126</v>
       </c>
       <c r="C24" s="73" t="s">
         <v>7</v>
@@ -4019,250 +3959,318 @@
       <c r="F24" s="73" t="n">
         <v>4</v>
       </c>
-      <c r="G24" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="H24" s="73"/>
+      <c r="G24" s="75" t="n">
+        <v>44603</v>
+      </c>
+      <c r="H24" s="80" t="s">
+        <v>124</v>
+      </c>
       <c r="I24" s="76" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="78" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" s="81" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="41" t="n">
         <v>36</v>
       </c>
-      <c r="B25" s="79" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="80" t="s">
+      <c r="B25" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
+      <c r="D25" s="74" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="75" t="n">
+        <v>44627</v>
+      </c>
+      <c r="H25" s="75" t="n">
+        <v>44627</v>
+      </c>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="41" t="s">
+    <row r="26" s="81" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="41" t="n">
+        <v>37</v>
+      </c>
+      <c r="B26" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="74" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" s="73" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="73" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="75" t="n">
+        <v>44634</v>
+      </c>
+      <c r="H26" s="75"/>
+      <c r="I26" s="76"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="76"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="77" t="n">
-        <v>40</v>
-      </c>
-      <c r="B27" s="69" t="s">
-        <v>126</v>
-      </c>
+      <c r="B27" s="77"/>
       <c r="C27" s="73"/>
       <c r="D27" s="73"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="83" t="n">
+    <row r="28" s="81" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="78" t="n">
+        <v>40</v>
+      </c>
+      <c r="B28" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="76"/>
+    </row>
+    <row r="29" s="81" customFormat="true" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="82" t="n">
         <v>41</v>
       </c>
-      <c r="B28" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="85" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H28" s="85"/>
-      <c r="I28" s="86"/>
-    </row>
-    <row r="29" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="83" t="n">
-        <v>42</v>
-      </c>
-      <c r="B29" s="87" t="s">
-        <v>129</v>
+      <c r="B29" s="77" t="s">
+        <v>131</v>
       </c>
       <c r="C29" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="84" t="n">
-        <v>3</v>
-      </c>
-      <c r="E29" s="85" t="n">
+      <c r="D29" s="83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="84" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="F29" s="85" t="n">
-        <v>3</v>
-      </c>
-      <c r="G29" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29" s="85"/>
-      <c r="I29" s="86"/>
-    </row>
-    <row r="30" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="83" t="n">
-        <v>43</v>
-      </c>
-      <c r="B30" s="87" t="s">
-        <v>130</v>
+      <c r="G29" s="75" t="n">
+        <v>44634</v>
+      </c>
+      <c r="H29" s="75" t="n">
+        <v>44627</v>
+      </c>
+      <c r="I29" s="85" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" s="81" customFormat="true" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="82" t="n">
+        <v>42</v>
+      </c>
+      <c r="B30" s="86" t="s">
+        <v>133</v>
       </c>
       <c r="C30" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="84" t="n">
+      <c r="D30" s="83" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" s="84" t="n">
         <v>2</v>
       </c>
-      <c r="E30" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="85" t="n">
+      <c r="F30" s="84" t="n">
         <v>2</v>
       </c>
-      <c r="G30" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="H30" s="85"/>
-      <c r="I30" s="86"/>
-    </row>
-    <row r="31" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="83" t="n">
-        <v>44</v>
-      </c>
-      <c r="B31" s="87" t="s">
-        <v>132</v>
+      <c r="G30" s="75" t="n">
+        <v>44634</v>
+      </c>
+      <c r="H30" s="75"/>
+      <c r="I30" s="85" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" s="81" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="82" t="n">
+        <v>43</v>
+      </c>
+      <c r="B31" s="86" t="s">
+        <v>135</v>
       </c>
       <c r="C31" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="84" t="n">
+      <c r="D31" s="83" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="84" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="75" t="n">
+        <v>44641</v>
+      </c>
+      <c r="H31" s="75"/>
+      <c r="I31" s="85"/>
+    </row>
+    <row r="32" s="81" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="82" t="n">
+        <v>44</v>
+      </c>
+      <c r="B32" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="83" t="n">
         <v>6</v>
       </c>
-      <c r="E31" s="85" t="n">
+      <c r="E32" s="84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" s="84" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" s="75" t="n">
+        <v>44648</v>
+      </c>
+      <c r="H32" s="75"/>
+      <c r="I32" s="85"/>
+    </row>
+    <row r="33" s="81" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="82" t="n">
+        <v>45</v>
+      </c>
+      <c r="B33" s="87" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="83" t="n">
+        <v>6</v>
+      </c>
+      <c r="E33" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="F31" s="85" t="n">
+      <c r="F33" s="84" t="n">
         <v>6</v>
       </c>
-      <c r="G31" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="H31" s="85"/>
-      <c r="I31" s="86"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="88" t="n">
-        <v>45</v>
-      </c>
-      <c r="B32" s="89" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" s="80" t="s">
+      <c r="G33" s="75" t="n">
+        <v>44676</v>
+      </c>
+      <c r="H33" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" s="85"/>
+    </row>
+    <row r="34" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="41" t="n">
+        <v>46</v>
+      </c>
+      <c r="B34" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="90" t="n">
-        <v>6</v>
-      </c>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="86"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="87"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="86"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="83"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="86"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="83"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="86"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="45"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="93"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="66" t="n">
-        <f aca="false">SUM(D11:D36)</f>
-        <v>54</v>
-      </c>
-      <c r="E37" s="66" t="n">
-        <f aca="false">SUM(E11:E36)</f>
-        <v>20</v>
-      </c>
-      <c r="F37" s="66" t="n">
-        <f aca="false">SUM(F11:F36)</f>
-        <v>22</v>
-      </c>
-      <c r="I37" s="94"/>
+      <c r="D34" s="74" t="n">
+        <v>12</v>
+      </c>
+      <c r="E34" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="73" t="n">
+        <v>12</v>
+      </c>
+      <c r="G34" s="75" t="n">
+        <v>44683</v>
+      </c>
+      <c r="H34" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" s="76"/>
+    </row>
+    <row r="35" s="81" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="82"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="85"/>
+    </row>
+    <row r="36" s="81" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="82"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="85"/>
+    </row>
+    <row r="37" s="81" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="45"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="92"/>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I38" s="94"/>
-    </row>
+      <c r="D38" s="66" t="n">
+        <f aca="false">SUM(D11:D37)</f>
+        <v>62</v>
+      </c>
+      <c r="E38" s="66" t="n">
+        <f aca="false">SUM(E11:E37)</f>
+        <v>38</v>
+      </c>
+      <c r="F38" s="66" t="n">
+        <f aca="false">SUM(F11:F37)</f>
+        <v>36</v>
+      </c>
+      <c r="I38" s="93"/>
+    </row>
+    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I39" s="93"/>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A3:I33"/>
+  <autoFilter ref="A3:I34"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4273,13 +4281,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -4288,696 +4296,696 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="66" width="5.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="95" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="94" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="51.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="95" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="94" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="38.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="1" width="11.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="96" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
+      <c r="A1" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="97" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="98" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="97" t="s">
-        <v>139</v>
-      </c>
-      <c r="F3" s="97" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="97" t="s">
+      <c r="B3" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="H3" s="97" t="s">
+      <c r="C3" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="I3" s="98" t="s">
+      <c r="D3" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="J3" s="97" t="s">
+      <c r="E3" s="96" t="s">
         <v>144</v>
       </c>
-      <c r="K3" s="97" t="s">
+      <c r="F3" s="96" t="s">
         <v>145</v>
       </c>
+      <c r="G3" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="J3" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" s="96" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="99" t="n">
+      <c r="A4" s="98" t="n">
         <f aca="false">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="100" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="101" t="s">
+      <c r="B4" s="99" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="102" t="n">
+      <c r="D4" s="101" t="n">
         <v>43833</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" s="101" t="s">
-        <v>148</v>
-      </c>
-      <c r="G4" s="101" t="s">
-        <v>149</v>
-      </c>
-      <c r="H4" s="101" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="100" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="100" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="102" t="n">
+      <c r="I4" s="101" t="n">
         <v>43885</v>
       </c>
       <c r="J4" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="K4" s="103"/>
+        <v>155</v>
+      </c>
+      <c r="K4" s="102"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="104" t="n">
+      <c r="A5" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="B5" s="105" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="106" t="s">
+      <c r="B5" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="107" t="n">
+      <c r="D5" s="106" t="n">
         <v>43884</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="106" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="106" t="s">
-        <v>153</v>
-      </c>
-      <c r="H5" s="106" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="105" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="107" t="n">
+      <c r="I5" s="106" t="n">
         <v>43899</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="K5" s="108"/>
+        <v>159</v>
+      </c>
+      <c r="K5" s="107"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="104" t="n">
+      <c r="A6" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>3</v>
       </c>
-      <c r="B6" s="105" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="106" t="s">
+      <c r="B6" s="104" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="107" t="n">
+      <c r="D6" s="106" t="n">
         <v>43893</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="F6" s="106" t="s">
-        <v>152</v>
-      </c>
-      <c r="G6" s="106" t="s">
-        <v>153</v>
-      </c>
-      <c r="H6" s="106" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="105" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="107" t="n">
+      <c r="I6" s="106" t="n">
         <v>43941</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="K6" s="108"/>
+        <v>162</v>
+      </c>
+      <c r="K6" s="107"/>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="104" t="n">
+      <c r="A7" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>4</v>
       </c>
-      <c r="B7" s="105" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="106" t="s">
+      <c r="B7" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="107" t="n">
+      <c r="D7" s="106" t="n">
         <v>43893</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="106" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="106" t="s">
-        <v>149</v>
-      </c>
-      <c r="H7" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="107" t="n">
+      <c r="I7" s="106" t="n">
         <v>43899</v>
       </c>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
     </row>
     <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="104" t="n">
+      <c r="A8" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>5</v>
       </c>
-      <c r="B8" s="104" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="106" t="s">
+      <c r="B8" s="103" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="107" t="n">
+      <c r="D8" s="106" t="n">
         <v>43920</v>
       </c>
-      <c r="E8" s="109" t="s">
-        <v>159</v>
-      </c>
-      <c r="F8" s="106" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="106" t="s">
-        <v>149</v>
-      </c>
-      <c r="H8" s="106" t="s">
+      <c r="E8" s="108" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="105" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="107" t="n">
+      <c r="I8" s="106" t="n">
         <v>43941</v>
       </c>
-      <c r="J8" s="108" t="s">
-        <v>160</v>
-      </c>
-      <c r="K8" s="108"/>
+      <c r="J8" s="107" t="s">
+        <v>165</v>
+      </c>
+      <c r="K8" s="107"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="104" t="n">
+      <c r="A9" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>6</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="104" t="n">
+      <c r="A10" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>7</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="106"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="105"/>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="104" t="n">
+      <c r="A11" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>8</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="106"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="105"/>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="104" t="n">
+      <c r="A12" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>9</v>
       </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="107"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="31"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="107"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="106"/>
       <c r="J12" s="31"/>
-      <c r="K12" s="106"/>
+      <c r="K12" s="105"/>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="104" t="n">
+      <c r="A13" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>10</v>
       </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="106"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="105"/>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="104" t="n">
+      <c r="A14" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>11</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="104" t="n">
+      <c r="A15" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>12</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="106"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="105"/>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="104" t="n">
+      <c r="A16" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>13</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="106"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="105"/>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="104" t="n">
+      <c r="A17" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>14</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="106"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="105"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="104" t="n">
+      <c r="A18" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>15</v>
       </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="104" t="n">
+      <c r="A19" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>16</v>
       </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="106"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="105"/>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="104" t="n">
+      <c r="A20" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>17</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="106"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="105"/>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="104" t="n">
+      <c r="A21" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>18</v>
       </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="108"/>
-      <c r="K21" s="106"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="105"/>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="104" t="n">
+      <c r="A22" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>19</v>
       </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="106"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="105"/>
     </row>
     <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="104" t="n">
+      <c r="A23" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>20</v>
       </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="106"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="105"/>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="104" t="n">
+      <c r="A24" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>21</v>
       </c>
-      <c r="B24" s="104"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="106"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="105"/>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="104" t="n">
+      <c r="A25" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>22</v>
       </c>
-      <c r="B25" s="104"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="106"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="105"/>
     </row>
     <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="104" t="n">
+      <c r="A26" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>23</v>
       </c>
-      <c r="B26" s="104"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="106"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="105"/>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="104" t="n">
+      <c r="A27" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>24</v>
       </c>
-      <c r="B27" s="104"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="106"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="105"/>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="104" t="n">
+      <c r="A28" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>25</v>
       </c>
-      <c r="B28" s="104"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="106"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="105"/>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="104" t="n">
+      <c r="A29" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>26</v>
       </c>
-      <c r="B29" s="104"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="106"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="105"/>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="104" t="n">
+      <c r="A30" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>27</v>
       </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="106"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="105"/>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="104" t="n">
+      <c r="A31" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>28</v>
       </c>
-      <c r="B31" s="104"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="109"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="106"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="105"/>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="104" t="n">
+      <c r="A32" s="103" t="n">
         <f aca="false">ROW()-3</f>
         <v>29</v>
       </c>
-      <c r="B32" s="104"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="106"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="105"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="110" t="n">
+      <c r="A33" s="109" t="n">
         <f aca="false">ROW()-3</f>
         <v>30</v>
       </c>
-      <c r="B33" s="110"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="111"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="110"/>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="66"/>
-      <c r="C34" s="115"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="115"/>
+      <c r="C34" s="114"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="114"/>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="66"/>
-      <c r="C35" s="115"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="115"/>
+      <c r="C35" s="114"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="114"/>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G39" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E45" s="118"/>
+      <c r="E45" s="117"/>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E51" s="33"/>
@@ -4987,8 +4995,8 @@
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5001,13 +5009,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -5024,7 +5032,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="48" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -5042,25 +5050,25 @@
         <v>40</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5068,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C4" s="57" t="n">
         <v>4</v>
@@ -5076,13 +5084,13 @@
       <c r="D4" s="57" t="n">
         <v>4</v>
       </c>
-      <c r="E4" s="119" t="n">
+      <c r="E4" s="118" t="n">
         <f aca="false">C4*D4</f>
         <v>16</v>
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="31" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H4" s="31"/>
     </row>
@@ -5091,7 +5099,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C5" s="57" t="n">
         <v>1</v>
@@ -5099,7 +5107,7 @@
       <c r="D5" s="57" t="n">
         <v>5</v>
       </c>
-      <c r="E5" s="119" t="n">
+      <c r="E5" s="118" t="n">
         <f aca="false">C5*D5</f>
         <v>5</v>
       </c>
@@ -5112,11 +5120,11 @@
         <v>3</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C6" s="57"/>
       <c r="D6" s="57"/>
-      <c r="E6" s="119" t="n">
+      <c r="E6" s="118" t="n">
         <f aca="false">C6*D6</f>
         <v>0</v>
       </c>
@@ -5129,11 +5137,11 @@
         <v>4</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C7" s="57"/>
       <c r="D7" s="57"/>
-      <c r="E7" s="119" t="n">
+      <c r="E7" s="118" t="n">
         <f aca="false">C7*D7</f>
         <v>0</v>
       </c>
@@ -5148,7 +5156,7 @@
       <c r="B8" s="31"/>
       <c r="C8" s="57"/>
       <c r="D8" s="57"/>
-      <c r="E8" s="119" t="n">
+      <c r="E8" s="118" t="n">
         <f aca="false">C8*D8</f>
         <v>0</v>
       </c>
@@ -5163,7 +5171,7 @@
       <c r="B9" s="31"/>
       <c r="C9" s="57"/>
       <c r="D9" s="57"/>
-      <c r="E9" s="119" t="n">
+      <c r="E9" s="118" t="n">
         <f aca="false">C9*D9</f>
         <v>0</v>
       </c>
@@ -5178,7 +5186,7 @@
       <c r="B10" s="31"/>
       <c r="C10" s="57"/>
       <c r="D10" s="57"/>
-      <c r="E10" s="119" t="n">
+      <c r="E10" s="118" t="n">
         <f aca="false">C10*D10</f>
         <v>0</v>
       </c>
@@ -5193,7 +5201,7 @@
       <c r="B11" s="31"/>
       <c r="C11" s="57"/>
       <c r="D11" s="57"/>
-      <c r="E11" s="119" t="n">
+      <c r="E11" s="118" t="n">
         <f aca="false">C11*D11</f>
         <v>0</v>
       </c>
@@ -5208,7 +5216,7 @@
       <c r="B12" s="31"/>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="119" t="n">
+      <c r="E12" s="118" t="n">
         <f aca="false">C12*D12</f>
         <v>0</v>
       </c>
@@ -5223,7 +5231,7 @@
       <c r="B13" s="31"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
-      <c r="E13" s="119" t="n">
+      <c r="E13" s="118" t="n">
         <f aca="false">C13*D13</f>
         <v>0</v>
       </c>
@@ -5238,7 +5246,7 @@
       <c r="B14" s="31"/>
       <c r="C14" s="57"/>
       <c r="D14" s="57"/>
-      <c r="E14" s="119" t="n">
+      <c r="E14" s="118" t="n">
         <f aca="false">C14*D14</f>
         <v>0</v>
       </c>
@@ -5253,7 +5261,7 @@
       <c r="B15" s="31"/>
       <c r="C15" s="57"/>
       <c r="D15" s="57"/>
-      <c r="E15" s="119" t="n">
+      <c r="E15" s="118" t="n">
         <f aca="false">C15*D15</f>
         <v>0</v>
       </c>
@@ -5268,7 +5276,7 @@
       <c r="B16" s="31"/>
       <c r="C16" s="57"/>
       <c r="D16" s="57"/>
-      <c r="E16" s="119" t="n">
+      <c r="E16" s="118" t="n">
         <f aca="false">C16*D16</f>
         <v>0</v>
       </c>
@@ -5283,7 +5291,7 @@
       <c r="B17" s="31"/>
       <c r="C17" s="57"/>
       <c r="D17" s="57"/>
-      <c r="E17" s="119" t="n">
+      <c r="E17" s="118" t="n">
         <f aca="false">C17*D17</f>
         <v>0</v>
       </c>
@@ -5298,7 +5306,7 @@
       <c r="B18" s="31"/>
       <c r="C18" s="57"/>
       <c r="D18" s="57"/>
-      <c r="E18" s="119" t="n">
+      <c r="E18" s="118" t="n">
         <f aca="false">C18*D18</f>
         <v>0</v>
       </c>
@@ -5313,7 +5321,7 @@
       <c r="B19" s="31"/>
       <c r="C19" s="57"/>
       <c r="D19" s="57"/>
-      <c r="E19" s="119" t="n">
+      <c r="E19" s="118" t="n">
         <f aca="false">C19*D19</f>
         <v>0</v>
       </c>
@@ -5328,7 +5336,7 @@
       <c r="B20" s="31"/>
       <c r="C20" s="57"/>
       <c r="D20" s="57"/>
-      <c r="E20" s="119" t="n">
+      <c r="E20" s="118" t="n">
         <f aca="false">C20*D20</f>
         <v>0</v>
       </c>
@@ -5343,7 +5351,7 @@
       <c r="B21" s="31"/>
       <c r="C21" s="57"/>
       <c r="D21" s="57"/>
-      <c r="E21" s="119" t="n">
+      <c r="E21" s="118" t="n">
         <f aca="false">C21*D21</f>
         <v>0</v>
       </c>
@@ -5358,7 +5366,7 @@
       <c r="B22" s="31"/>
       <c r="C22" s="57"/>
       <c r="D22" s="57"/>
-      <c r="E22" s="119" t="n">
+      <c r="E22" s="118" t="n">
         <f aca="false">C22*D22</f>
         <v>0</v>
       </c>
@@ -5373,7 +5381,7 @@
       <c r="B23" s="31"/>
       <c r="C23" s="57"/>
       <c r="D23" s="57"/>
-      <c r="E23" s="119" t="n">
+      <c r="E23" s="118" t="n">
         <f aca="false">C23*D23</f>
         <v>0</v>
       </c>
@@ -5388,7 +5396,7 @@
       <c r="B24" s="31"/>
       <c r="C24" s="57"/>
       <c r="D24" s="57"/>
-      <c r="E24" s="119" t="n">
+      <c r="E24" s="118" t="n">
         <f aca="false">C24*D24</f>
         <v>0</v>
       </c>
@@ -5403,7 +5411,7 @@
       <c r="B25" s="31"/>
       <c r="C25" s="57"/>
       <c r="D25" s="57"/>
-      <c r="E25" s="119" t="n">
+      <c r="E25" s="118" t="n">
         <f aca="false">C25*D25</f>
         <v>0</v>
       </c>
@@ -5418,7 +5426,7 @@
       <c r="B26" s="31"/>
       <c r="C26" s="57"/>
       <c r="D26" s="57"/>
-      <c r="E26" s="119" t="n">
+      <c r="E26" s="118" t="n">
         <f aca="false">C26*D26</f>
         <v>0</v>
       </c>
@@ -5433,7 +5441,7 @@
       <c r="B27" s="31"/>
       <c r="C27" s="57"/>
       <c r="D27" s="57"/>
-      <c r="E27" s="119" t="n">
+      <c r="E27" s="118" t="n">
         <f aca="false">C27*D27</f>
         <v>0</v>
       </c>
@@ -5448,7 +5456,7 @@
       <c r="B28" s="31"/>
       <c r="C28" s="57"/>
       <c r="D28" s="57"/>
-      <c r="E28" s="119" t="n">
+      <c r="E28" s="118" t="n">
         <f aca="false">C28*D28</f>
         <v>0</v>
       </c>
@@ -5463,7 +5471,7 @@
       <c r="B29" s="31"/>
       <c r="C29" s="57"/>
       <c r="D29" s="57"/>
-      <c r="E29" s="119" t="n">
+      <c r="E29" s="118" t="n">
         <f aca="false">C29*D29</f>
         <v>0</v>
       </c>
@@ -5478,7 +5486,7 @@
       <c r="B30" s="31"/>
       <c r="C30" s="57"/>
       <c r="D30" s="57"/>
-      <c r="E30" s="119" t="n">
+      <c r="E30" s="118" t="n">
         <f aca="false">C30*D30</f>
         <v>0</v>
       </c>
@@ -5493,7 +5501,7 @@
       <c r="B31" s="31"/>
       <c r="C31" s="57"/>
       <c r="D31" s="57"/>
-      <c r="E31" s="119" t="n">
+      <c r="E31" s="118" t="n">
         <f aca="false">C31*D31</f>
         <v>0</v>
       </c>
@@ -5508,7 +5516,7 @@
       <c r="B32" s="31"/>
       <c r="C32" s="57"/>
       <c r="D32" s="57"/>
-      <c r="E32" s="119" t="n">
+      <c r="E32" s="118" t="n">
         <f aca="false">C32*D32</f>
         <v>0</v>
       </c>
@@ -5523,7 +5531,7 @@
       <c r="B33" s="36"/>
       <c r="C33" s="58"/>
       <c r="D33" s="58"/>
-      <c r="E33" s="120" t="n">
+      <c r="E33" s="119" t="n">
         <f aca="false">C33*D33</f>
         <v>0</v>
       </c>
@@ -5548,8 +5556,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5559,17 +5567,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="25.11"/>
@@ -5577,302 +5585,302 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="121" t="s">
-        <v>179</v>
+      <c r="A1" s="120" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="122" t="s">
-        <v>182</v>
-      </c>
-      <c r="B4" s="123" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="123" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="123" t="s">
-        <v>185</v>
+      <c r="A4" s="121" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="122" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="122" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="122" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="123" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="124" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="124" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="123" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="124" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="124" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="124" t="s">
+        <v>193</v>
+      </c>
+      <c r="K6" s="125" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="123" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="124" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="124" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="124" t="s">
+        <v>200</v>
+      </c>
+      <c r="K7" s="121" t="s">
+        <v>201</v>
+      </c>
+      <c r="L7" s="121" t="s">
+        <v>202</v>
+      </c>
+      <c r="M7" s="121" t="s">
+        <v>203</v>
+      </c>
+      <c r="N7" s="121" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="123" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="124" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="124" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="124" t="s">
+        <v>207</v>
+      </c>
+      <c r="K8" s="123" t="s">
+        <v>199</v>
+      </c>
+      <c r="L8" s="123" t="s">
+        <v>193</v>
+      </c>
+      <c r="M8" s="123" t="s">
+        <v>193</v>
+      </c>
+      <c r="N8" s="123" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="123" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="K9" s="123" t="s">
+        <v>199</v>
+      </c>
+      <c r="L9" s="123" t="s">
+        <v>193</v>
+      </c>
+      <c r="M9" s="123" t="s">
+        <v>200</v>
+      </c>
+      <c r="N9" s="123" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="123"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="K10" s="123" t="s">
+        <v>206</v>
+      </c>
+      <c r="L10" s="123" t="s">
+        <v>193</v>
+      </c>
+      <c r="M10" s="123" t="s">
+        <v>193</v>
+      </c>
+      <c r="N10" s="123" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="123"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="K11" s="123" t="s">
+        <v>206</v>
+      </c>
+      <c r="L11" s="123" t="s">
+        <v>193</v>
+      </c>
+      <c r="M11" s="123" t="s">
+        <v>200</v>
+      </c>
+      <c r="N11" s="123" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="123"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="K12" s="123" t="s">
+        <v>199</v>
+      </c>
+      <c r="L12" s="123" t="s">
+        <v>200</v>
+      </c>
+      <c r="M12" s="123" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" s="123" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="123"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="123"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="123"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="123"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="123"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="123"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="123"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="121" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="125" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="125" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5" s="125" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="124" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="125" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" s="125" t="s">
-        <v>189</v>
-      </c>
-      <c r="K6" s="126" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="124" t="s">
-        <v>194</v>
-      </c>
-      <c r="B7" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="C7" s="125" t="s">
-        <v>192</v>
-      </c>
-      <c r="D7" s="125" t="s">
-        <v>196</v>
-      </c>
-      <c r="K7" s="122" t="s">
-        <v>197</v>
-      </c>
-      <c r="L7" s="122" t="s">
-        <v>198</v>
-      </c>
-      <c r="M7" s="122" t="s">
-        <v>199</v>
-      </c>
-      <c r="N7" s="122" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="124" t="s">
-        <v>201</v>
-      </c>
-      <c r="B8" s="125" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="125" t="s">
-        <v>189</v>
-      </c>
-      <c r="D8" s="125" t="s">
-        <v>203</v>
-      </c>
-      <c r="K8" s="124" t="s">
-        <v>195</v>
-      </c>
-      <c r="L8" s="124" t="s">
-        <v>189</v>
-      </c>
-      <c r="M8" s="124" t="s">
-        <v>189</v>
-      </c>
-      <c r="N8" s="124" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="124" t="s">
+      <c r="B21" s="126" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="126"/>
+      <c r="D21" s="126"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="127" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="K9" s="124" t="s">
-        <v>195</v>
-      </c>
-      <c r="L9" s="124" t="s">
-        <v>189</v>
-      </c>
-      <c r="M9" s="124" t="s">
-        <v>196</v>
-      </c>
-      <c r="N9" s="124" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="124"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="K10" s="124" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="124" t="s">
-        <v>189</v>
-      </c>
-      <c r="M10" s="124" t="s">
-        <v>189</v>
-      </c>
-      <c r="N10" s="124" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="124"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="K11" s="124" t="s">
-        <v>202</v>
-      </c>
-      <c r="L11" s="124" t="s">
-        <v>189</v>
-      </c>
-      <c r="M11" s="124" t="s">
-        <v>196</v>
-      </c>
-      <c r="N11" s="124" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="124"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="K12" s="124" t="s">
-        <v>195</v>
-      </c>
-      <c r="L12" s="124" t="s">
-        <v>196</v>
-      </c>
-      <c r="M12" s="124" t="s">
-        <v>53</v>
-      </c>
-      <c r="N12" s="124" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="124"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="124"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="124"/>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="124"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="124"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="124"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="124"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="122" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" s="127" t="s">
-        <v>210</v>
-      </c>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="128" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" s="129" t="s">
-        <v>211</v>
-      </c>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
+      <c r="B22" s="128" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="128" t="s">
-        <v>212</v>
-      </c>
-      <c r="B23" s="129" t="s">
-        <v>213</v>
-      </c>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
+      <c r="A23" s="127" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" s="128" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="128" t="s">
-        <v>214</v>
-      </c>
-      <c r="B24" s="129" t="s">
-        <v>215</v>
-      </c>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
+      <c r="A24" s="127" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" s="128" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="124"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
+      <c r="A25" s="123"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="124"/>
-      <c r="B26" s="130"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
+      <c r="A26" s="123"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="124"/>
-      <c r="B27" s="130"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
+      <c r="A27" s="123"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="124"/>
-      <c r="B28" s="130"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="124"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
+      <c r="A29" s="123"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5887,18 +5895,18 @@
     <mergeCell ref="B29:D29"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B5:B19" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B5:B19" type="list">
       <formula1>"sehr positiv,positiv,eher positiv,neutral,eher negativ,negativ,sehr negativ"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:D19" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5:D19" type="list">
       <formula1>"sehr hoch,hoch,eher hoch,neutral,eher niedrig,niedrig,sehr niedrig"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5908,27 +5916,27 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="49" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="49" width="8.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="33" width="61.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="33" width="61.58"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="33" width="11.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="48" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -5936,30 +5944,36 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="39" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="53" t="n">
-        <v>43893</v>
-      </c>
-      <c r="B4" s="131" t="n">
-        <v>1</v>
+      <c r="A4" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="130" t="s">
+        <v>182</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="31"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="131" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B5" s="57" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="57"/>
@@ -6106,8 +6120,8 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/project/Projekt-Steuerung_Selbstfahrendes-Auto.xlsx
+++ b/project/Projekt-Steuerung_Selbstfahrendes-Auto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Projektüberblick" sheetId="1" state="visible" r:id="rId2"/>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="240">
   <si>
     <t xml:space="preserve">Projekt: Selbstfahrendes Auto</t>
   </si>
@@ -749,9 +749,15 @@
     <t xml:space="preserve">https://www.neuhold-elektronik.at/catshop/product_info.php?cPath=36_230&amp;products_id=7117</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.conrad.at/de/p/sony-us18650vtc5a-spezial-akku-18650-hochstromfaehig-flat-top-li-ion-3-7-v-2600-mah-1499575.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ladeschaltung für Li-Ion Akku</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.reichelt.at/at/de/entwicklerboards-ladeplatine-fuer-3-7v-li-akkus-usb-c-1a-debo1-3-7li-1-0a-p291398.html?&amp;nbc=1&amp;trstct=lsbght_sldr::114322</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kippschalter</t>
   </si>
   <si>
@@ -768,6 +774,24 @@
   </si>
   <si>
     <t xml:space="preserve">Eventuell 7805 Spannungsregler + hochohmige Widerstände für Batterieüberwachung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharp IR-Sensor 10-80cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.robotshop.com/de/de/sharp-gp2y0a21yk0f-ir-bereichssensor-10cm-bis-80cm.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharp IR-Sensor 20-150cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.robotshop.com/de/de/sharp-gp2y0a02yk0f-ir-entfernungssensor-20-cm-bis-150-cm.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumperkabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.conrad.at/de/p/whadda-wpa427-jumper-kabel-40x-drahtbruecken-stecker-40x-drahtbruecken-stecker-15-00-cm-bunt-2330813.html</t>
   </si>
   <si>
     <t xml:space="preserve">Summe</t>
@@ -1185,7 +1209,7 @@
     <t xml:space="preserve">Aufgabe / Thema</t>
   </si>
   <si>
-    <t xml:space="preserve">Tagebuch erst späte begonnen (leider)</t>
+    <t xml:space="preserve">m</t>
   </si>
   <si>
     <t xml:space="preserve">Plan ist, dass das Auto die erste Gerade schnell mittig fahren kann und die erste Kurve erkennt.</t>
@@ -2229,8 +2253,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2570,26 +2594,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="133" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B1" s="133" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="132" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B2" s="132" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="132" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B3" s="132" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3087,10 +3111,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3101,7 +3125,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="33" width="11.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="33" width="17.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="33" width="68.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="33" width="11.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="33" width="45.59"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="33" width="11.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3153,7 +3178,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="57" t="n">
         <v>2</v>
       </c>
@@ -3170,13 +3195,16 @@
       <c r="F5" s="62" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="57" t="n">
         <v>3</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="57" t="n">
         <v>1</v>
@@ -3185,14 +3213,16 @@
         <v>2.5</v>
       </c>
       <c r="E6" s="31"/>
-      <c r="F6" s="62"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="57" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" s="57" t="n">
         <v>1</v>
@@ -3201,23 +3231,24 @@
         <v>2</v>
       </c>
       <c r="E7" s="31"/>
+      <c r="F7" s="62"/>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="57" t="n">
         <v>5</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D8" s="61" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="31"/>
       <c r="F8" s="31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3225,7 +3256,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C9" s="57" t="n">
         <v>1</v>
@@ -3235,7 +3266,7 @@
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3243,48 +3274,72 @@
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D10" s="61" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="57" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="61"/>
+      <c r="B11" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="61" t="n">
+        <v>16</v>
+      </c>
       <c r="E11" s="31"/>
-      <c r="F11" s="63"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="57" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="61"/>
+      <c r="B12" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="61" t="n">
+        <v>14</v>
+      </c>
       <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="57" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="61"/>
+      <c r="B13" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="61" t="n">
+        <v>5</v>
+      </c>
       <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
+      <c r="F13" s="31" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="57" t="n">
@@ -3359,12 +3414,12 @@
     <row r="21" s="59" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="64"/>
       <c r="B21" s="59" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C21" s="64"/>
       <c r="D21" s="65" t="n">
         <f aca="false">SUM(D4:D20)</f>
-        <v>45.5</v>
+        <v>80.5</v>
       </c>
     </row>
   </sheetData>
@@ -3374,6 +3429,7 @@
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" display="https://www.banggood.com/de/4WD-DIY-Smart-Chassis-Car-Kit-For-Arduino-with-UNO-R3-Ultrasonic-ModuleMotor-drive-board-p-1332912.html?akmClientCountry=AT&amp;rmmds=detail-left-hotproducts__4&amp;cur_warehouse=CN"/>
     <hyperlink ref="F5" r:id="rId2" display="https://www.neuhold-elektronik.at/catshop/product_info.php?cPath=36_230&amp;products_id=7117"/>
+    <hyperlink ref="F6" r:id="rId3" display="https://www.reichelt.at/at/de/entwicklerboards-ladeplatine-fuer-3-7v-li-akkus-usb-c-1a-debo1-3-7li-1-0a-p291398.html?&amp;nbc=1&amp;trstct=lsbght_sldr::114322"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3408,7 +3464,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3424,28 +3480,28 @@
         <v>40</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D3" s="67" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E3" s="67" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F3" s="67" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G3" s="67" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H3" s="67" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="I3" s="67" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3453,7 +3509,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C4" s="70"/>
       <c r="D4" s="70"/>
@@ -3468,7 +3524,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C5" s="73" t="s">
         <v>7</v>
@@ -3493,7 +3549,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C6" s="73" t="s">
         <v>7</v>
@@ -3539,7 +3595,7 @@
       </c>
       <c r="H7" s="73"/>
       <c r="I7" s="76" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3547,7 +3603,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C8" s="73" t="s">
         <v>7</v>
@@ -3568,7 +3624,7 @@
         <v>44166</v>
       </c>
       <c r="I8" s="76" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="39.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3576,7 +3632,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C9" s="73" t="s">
         <v>7</v>
@@ -3597,7 +3653,7 @@
         <v>43885</v>
       </c>
       <c r="I9" s="76" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3618,7 +3674,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C11" s="73"/>
       <c r="D11" s="73"/>
@@ -3633,7 +3689,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C12" s="73" t="s">
         <v>7</v>
@@ -3654,7 +3710,7 @@
         <v>44563</v>
       </c>
       <c r="I12" s="76" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3662,7 +3718,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C13" s="73" t="s">
         <v>7</v>
@@ -3689,7 +3745,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C14" s="73" t="s">
         <v>7</v>
@@ -3716,7 +3772,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C15" s="73" t="s">
         <v>7</v>
@@ -3743,7 +3799,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="77" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C16" s="73" t="s">
         <v>7</v>
@@ -3764,7 +3820,7 @@
         <v>44615</v>
       </c>
       <c r="I16" s="76" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3772,7 +3828,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C17" s="73" t="s">
         <v>7</v>
@@ -3793,7 +3849,7 @@
         <v>44627</v>
       </c>
       <c r="I17" s="76" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3814,7 +3870,7 @@
         <v>30</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C19" s="73"/>
       <c r="D19" s="73"/>
@@ -3829,7 +3885,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="77" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C20" s="73" t="s">
         <v>7</v>
@@ -3850,7 +3906,7 @@
         <v>44564</v>
       </c>
       <c r="I20" s="76" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="103.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3858,7 +3914,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="77" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C21" s="73" t="s">
         <v>7</v>
@@ -3879,7 +3935,7 @@
         <v>43833</v>
       </c>
       <c r="I21" s="76" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3887,7 +3943,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="77" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C22" s="73" t="s">
         <v>7</v>
@@ -3905,10 +3961,10 @@
         <v>44604</v>
       </c>
       <c r="H22" s="79" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="I22" s="76" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3916,7 +3972,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="77" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C23" s="73" t="s">
         <v>7</v>
@@ -3934,10 +3990,10 @@
         <v>44603</v>
       </c>
       <c r="H23" s="80" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="I23" s="76" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3945,7 +4001,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="77" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C24" s="73" t="s">
         <v>7</v>
@@ -3963,10 +4019,10 @@
         <v>44603</v>
       </c>
       <c r="H24" s="80" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="I24" s="76" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" s="81" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3974,7 +4030,7 @@
         <v>36</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C25" s="73" t="s">
         <v>7</v>
@@ -4001,7 +4057,7 @@
         <v>37</v>
       </c>
       <c r="B26" s="72" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C26" s="73" t="s">
         <v>7</v>
@@ -4039,7 +4095,7 @@
         <v>40</v>
       </c>
       <c r="B28" s="69" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C28" s="73"/>
       <c r="D28" s="73"/>
@@ -4054,7 +4110,7 @@
         <v>41</v>
       </c>
       <c r="B29" s="77" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C29" s="73" t="s">
         <v>7</v>
@@ -4075,7 +4131,7 @@
         <v>44627</v>
       </c>
       <c r="I29" s="85" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" s="81" customFormat="true" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4083,7 +4139,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="86" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C30" s="73" t="s">
         <v>7</v>
@@ -4102,7 +4158,7 @@
       </c>
       <c r="H30" s="75"/>
       <c r="I30" s="85" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" s="81" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4110,7 +4166,7 @@
         <v>43</v>
       </c>
       <c r="B31" s="86" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C31" s="73" t="s">
         <v>7</v>
@@ -4135,7 +4191,7 @@
         <v>44</v>
       </c>
       <c r="B32" s="86" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C32" s="73" t="s">
         <v>7</v>
@@ -4160,7 +4216,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="87" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C33" s="73" t="s">
         <v>7</v>
@@ -4178,7 +4234,7 @@
         <v>44676</v>
       </c>
       <c r="H33" s="80" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="I33" s="85"/>
     </row>
@@ -4187,7 +4243,7 @@
         <v>46</v>
       </c>
       <c r="B34" s="88" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C34" s="73" t="s">
         <v>7</v>
@@ -4205,7 +4261,7 @@
         <v>44683</v>
       </c>
       <c r="H34" s="80" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="I34" s="76"/>
     </row>
@@ -4309,7 +4365,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="95" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -4328,34 +4384,34 @@
         <v>40</v>
       </c>
       <c r="B3" s="96" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C3" s="96" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D3" s="97" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E3" s="96" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F3" s="96" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G3" s="96" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H3" s="96" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="I3" s="97" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="J3" s="96" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="K3" s="96" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4364,7 +4420,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C4" s="100" t="s">
         <v>7</v>
@@ -4373,13 +4429,13 @@
         <v>43833</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F4" s="100" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G4" s="100" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="H4" s="100" t="s">
         <v>7</v>
@@ -4388,7 +4444,7 @@
         <v>43885</v>
       </c>
       <c r="J4" s="54" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="K4" s="102"/>
     </row>
@@ -4398,7 +4454,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="104" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C5" s="105" t="s">
         <v>7</v>
@@ -4407,13 +4463,13 @@
         <v>43884</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F5" s="105" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="G5" s="105" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="H5" s="105" t="s">
         <v>7</v>
@@ -4422,7 +4478,7 @@
         <v>43899</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="K5" s="107"/>
     </row>
@@ -4432,7 +4488,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="104" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C6" s="105" t="s">
         <v>7</v>
@@ -4441,13 +4497,13 @@
         <v>43893</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F6" s="105" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="G6" s="105" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="H6" s="105" t="s">
         <v>7</v>
@@ -4456,7 +4512,7 @@
         <v>43941</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K6" s="107"/>
     </row>
@@ -4466,7 +4522,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="104" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C7" s="105" t="s">
         <v>7</v>
@@ -4475,13 +4531,13 @@
         <v>43893</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F7" s="105" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G7" s="105" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="H7" s="105" t="s">
         <v>7</v>
@@ -4498,7 +4554,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="103" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C8" s="105" t="s">
         <v>7</v>
@@ -4507,13 +4563,13 @@
         <v>43920</v>
       </c>
       <c r="E8" s="108" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F8" s="105" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="G8" s="105" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="H8" s="105" t="s">
         <v>7</v>
@@ -4522,7 +4578,7 @@
         <v>43941</v>
       </c>
       <c r="J8" s="107" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="K8" s="107"/>
     </row>
@@ -4948,40 +5004,40 @@
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G39" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5032,7 +5088,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="48" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -5050,25 +5106,25 @@
         <v>40</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5076,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C4" s="57" t="n">
         <v>4</v>
@@ -5090,7 +5146,7 @@
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="31" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H4" s="31"/>
     </row>
@@ -5099,7 +5155,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C5" s="57" t="n">
         <v>1</v>
@@ -5120,7 +5176,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C6" s="57"/>
       <c r="D6" s="57"/>
@@ -5137,7 +5193,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C7" s="57"/>
       <c r="D7" s="57"/>
@@ -5586,134 +5642,134 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="120" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="0" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="121" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B4" s="122" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C4" s="122" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D4" s="122" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="123" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B5" s="124" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C5" s="124" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D5" s="124" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="123" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B6" s="124" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C6" s="124" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D6" s="124" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="K6" s="125" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="123" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B7" s="124" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C7" s="124" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D7" s="124" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="K7" s="121" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="L7" s="121" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M7" s="121" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="N7" s="121" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="123" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B8" s="124" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C8" s="124" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D8" s="124" t="s">
+        <v>215</v>
+      </c>
+      <c r="K8" s="123" t="s">
         <v>207</v>
       </c>
-      <c r="K8" s="123" t="s">
-        <v>199</v>
-      </c>
       <c r="L8" s="123" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="M8" s="123" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="N8" s="123" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="123" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B9" s="124"/>
       <c r="C9" s="124"/>
       <c r="D9" s="124"/>
       <c r="K9" s="123" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="L9" s="123" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="M9" s="123" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="N9" s="123" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5722,16 +5778,16 @@
       <c r="C10" s="124"/>
       <c r="D10" s="124"/>
       <c r="K10" s="123" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="L10" s="123" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="M10" s="123" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="N10" s="123" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5740,16 +5796,16 @@
       <c r="C11" s="124"/>
       <c r="D11" s="124"/>
       <c r="K11" s="123" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="L11" s="123" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="M11" s="123" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="N11" s="123" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5758,16 +5814,16 @@
       <c r="C12" s="124"/>
       <c r="D12" s="124"/>
       <c r="K12" s="123" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="L12" s="123" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="M12" s="123" t="s">
         <v>53</v>
       </c>
       <c r="N12" s="123" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5814,40 +5870,40 @@
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="121" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B21" s="126" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C21" s="126"/>
       <c r="D21" s="126"/>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="127" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B22" s="128" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C22" s="128"/>
       <c r="D22" s="128"/>
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="127" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B23" s="128" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C23" s="128"/>
       <c r="D23" s="128"/>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="127" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B24" s="128" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C24" s="128"/>
       <c r="D24" s="128"/>
@@ -5922,7 +5978,7 @@
   </sheetPr>
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -5936,7 +5992,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="48" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -5944,24 +6000,24 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="39" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="53" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B4" s="130" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5972,7 +6028,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
